--- a/ANALYSIS/DATA/overview recordings/overview recordings - 2021.xlsx
+++ b/ANALYSIS/DATA/overview recordings/overview recordings - 2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ssmeele/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ssmeele/ownCloud/Simeon/MPI AB/PhD thesis/Chapter II/voice_paper/ANALYSIS/DATA/overview recordings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E694AD9E-7520-E949-A449-97F84182F422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BCD29F-7021-0447-9A8B-D2D6DE1324DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="1060" windowWidth="26840" windowHeight="15060" xr2:uid="{E0C192EB-D97B-5B4C-8C8C-672350635C17}"/>
   </bookViews>
@@ -3151,9 +3151,6 @@
     <t>many calls, also unselected sequences</t>
   </si>
   <si>
-    <t>unselected sequences</t>
-  </si>
-  <si>
     <t>431888 4582171</t>
   </si>
   <si>
@@ -5723,6 +5720,9 @@
   </si>
   <si>
     <t>431919 4582282</t>
+  </si>
+  <si>
+    <t>unselected sequences, calls</t>
   </si>
 </sst>
 </file>
@@ -6077,8 +6077,8 @@
   <dimension ref="A1:H1299"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1281" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1300" sqref="D1300"/>
+      <pane ySplit="1" topLeftCell="A889" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A905" sqref="A905"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6864,7 +6864,7 @@
         <v>131</v>
       </c>
       <c r="F82" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -6878,7 +6878,7 @@
         <v>131</v>
       </c>
       <c r="F83" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -6892,7 +6892,7 @@
         <v>131</v>
       </c>
       <c r="F84" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -6917,10 +6917,10 @@
         <v>1</v>
       </c>
       <c r="D86" t="s">
+        <v>1451</v>
+      </c>
+      <c r="F86" t="s">
         <v>1452</v>
-      </c>
-      <c r="F86" t="s">
-        <v>1453</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -6931,7 +6931,7 @@
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="F87" t="s">
         <v>135</v>
@@ -6973,7 +6973,7 @@
         <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="G90">
         <v>212</v>
@@ -6987,7 +6987,7 @@
         <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="G91">
         <v>213</v>
@@ -7004,7 +7004,7 @@
         <v>565</v>
       </c>
       <c r="F92" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -7123,10 +7123,10 @@
         <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F102" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -7176,7 +7176,7 @@
         <v>1</v>
       </c>
       <c r="D106" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -7198,7 +7198,7 @@
         <v>131</v>
       </c>
       <c r="F108" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -7212,7 +7212,7 @@
         <v>131</v>
       </c>
       <c r="F109" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -7226,7 +7226,7 @@
         <v>131</v>
       </c>
       <c r="F110" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -7240,7 +7240,7 @@
         <v>131</v>
       </c>
       <c r="F111" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -7273,7 +7273,7 @@
         <v>1</v>
       </c>
       <c r="D114" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G114">
         <v>212</v>
@@ -7354,7 +7354,7 @@
         <v>131</v>
       </c>
       <c r="F120" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -7368,7 +7368,7 @@
         <v>131</v>
       </c>
       <c r="F121" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -7488,7 +7488,7 @@
         <v>131</v>
       </c>
       <c r="F130" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
@@ -7516,7 +7516,7 @@
         <v>131</v>
       </c>
       <c r="F132" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
@@ -7530,7 +7530,7 @@
         <v>131</v>
       </c>
       <c r="F133" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
@@ -7544,7 +7544,7 @@
         <v>131</v>
       </c>
       <c r="F134" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
@@ -7555,10 +7555,10 @@
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F135" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
@@ -7583,7 +7583,7 @@
         <v>1</v>
       </c>
       <c r="D137" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="G137">
         <v>212</v>
@@ -7597,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="G138">
         <v>213</v>
@@ -7664,7 +7664,7 @@
         <v>131</v>
       </c>
       <c r="F143" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
@@ -7678,7 +7678,7 @@
         <v>131</v>
       </c>
       <c r="F144" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
@@ -7703,7 +7703,7 @@
         <v>1</v>
       </c>
       <c r="D146" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="G146">
         <v>227</v>
@@ -7731,7 +7731,7 @@
         <v>1</v>
       </c>
       <c r="D148" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="G148">
         <v>204</v>
@@ -7773,10 +7773,10 @@
         <v>1</v>
       </c>
       <c r="D151" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F151" t="s">
         <v>1478</v>
-      </c>
-      <c r="F151" t="s">
-        <v>1479</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
@@ -7787,10 +7787,10 @@
         <v>1</v>
       </c>
       <c r="D152" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F152" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
@@ -7829,7 +7829,7 @@
         <v>1</v>
       </c>
       <c r="D155" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="G155">
         <v>250</v>
@@ -7846,7 +7846,7 @@
         <v>131</v>
       </c>
       <c r="F156" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
@@ -7888,7 +7888,7 @@
         <v>1034</v>
       </c>
       <c r="F159" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
@@ -7924,7 +7924,7 @@
         <v>131</v>
       </c>
       <c r="F162" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
@@ -7935,10 +7935,10 @@
         <v>1</v>
       </c>
       <c r="D163" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="F163" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
@@ -7991,7 +7991,7 @@
         <v>1</v>
       </c>
       <c r="D167" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="G167">
         <v>216</v>
@@ -8005,10 +8005,10 @@
         <v>1</v>
       </c>
       <c r="D168" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F168" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
@@ -8036,7 +8036,7 @@
         <v>131</v>
       </c>
       <c r="H170" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
@@ -8050,7 +8050,7 @@
         <v>131</v>
       </c>
       <c r="F171" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
@@ -8061,7 +8061,7 @@
         <v>1</v>
       </c>
       <c r="D172" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="G172">
         <v>209</v>
@@ -8075,10 +8075,10 @@
         <v>1</v>
       </c>
       <c r="D173" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F173" t="s">
         <v>1492</v>
-      </c>
-      <c r="F173" t="s">
-        <v>1493</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
@@ -8089,10 +8089,10 @@
         <v>1</v>
       </c>
       <c r="D174" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F174" t="s">
         <v>1494</v>
-      </c>
-      <c r="F174" t="s">
-        <v>1495</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
@@ -8103,7 +8103,7 @@
         <v>1</v>
       </c>
       <c r="D175" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G175">
         <v>227</v>
@@ -8206,7 +8206,7 @@
         <v>131</v>
       </c>
       <c r="F183" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
@@ -8217,7 +8217,7 @@
         <v>1</v>
       </c>
       <c r="D184" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="G184">
         <v>225</v>
@@ -8234,7 +8234,7 @@
         <v>131</v>
       </c>
       <c r="F185" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
@@ -8276,7 +8276,7 @@
         <v>131</v>
       </c>
       <c r="F188" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
@@ -8290,7 +8290,7 @@
         <v>558</v>
       </c>
       <c r="F189" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
@@ -8385,7 +8385,7 @@
         <v>1</v>
       </c>
       <c r="D196" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="G196">
         <v>210</v>
@@ -9028,7 +9028,7 @@
         <v>1</v>
       </c>
       <c r="D246" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="G246">
         <v>250</v>
@@ -9045,7 +9045,7 @@
         <v>131</v>
       </c>
       <c r="F247" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
@@ -9098,7 +9098,7 @@
         <v>1</v>
       </c>
       <c r="D251" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="G251">
         <v>222</v>
@@ -9112,7 +9112,7 @@
         <v>1</v>
       </c>
       <c r="D252" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="G252">
         <v>204</v>
@@ -9126,7 +9126,7 @@
         <v>1</v>
       </c>
       <c r="D253" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="G253">
         <v>205</v>
@@ -9154,13 +9154,13 @@
         <v>1</v>
       </c>
       <c r="D255" t="s">
+        <v>1506</v>
+      </c>
+      <c r="E255" t="s">
         <v>1507</v>
       </c>
-      <c r="E255" t="s">
-        <v>1508</v>
-      </c>
       <c r="F255" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
@@ -9202,7 +9202,7 @@
         <v>545</v>
       </c>
       <c r="F258" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
@@ -9227,7 +9227,7 @@
         <v>1</v>
       </c>
       <c r="D260" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="G260">
         <v>254</v>
@@ -9241,7 +9241,7 @@
         <v>1</v>
       </c>
       <c r="D261" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="G261">
         <v>249</v>
@@ -9314,7 +9314,7 @@
         <v>131</v>
       </c>
       <c r="F266" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
@@ -9325,7 +9325,7 @@
         <v>1</v>
       </c>
       <c r="D267" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="G267">
         <v>212</v>
@@ -9350,7 +9350,7 @@
         <v>131</v>
       </c>
       <c r="F269" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
@@ -9375,7 +9375,7 @@
         <v>1</v>
       </c>
       <c r="D271" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="G271">
         <v>205</v>
@@ -9420,7 +9420,7 @@
         <v>133</v>
       </c>
       <c r="F274" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
@@ -9431,10 +9431,10 @@
         <v>1</v>
       </c>
       <c r="D275" t="s">
+        <v>1514</v>
+      </c>
+      <c r="H275" t="s">
         <v>1515</v>
-      </c>
-      <c r="H275" t="s">
-        <v>1516</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
@@ -9459,10 +9459,10 @@
         <v>1</v>
       </c>
       <c r="D277" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F277" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.2">
@@ -9476,7 +9476,7 @@
         <v>131</v>
       </c>
       <c r="F278" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.2">
@@ -9490,7 +9490,7 @@
         <v>131</v>
       </c>
       <c r="F279" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.2">
@@ -9531,10 +9531,10 @@
         <v>1</v>
       </c>
       <c r="D283" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F283" t="s">
         <v>1520</v>
-      </c>
-      <c r="F283" t="s">
-        <v>1521</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
@@ -9545,7 +9545,7 @@
         <v>1</v>
       </c>
       <c r="D284" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="G284">
         <v>219</v>
@@ -9559,10 +9559,10 @@
         <v>1</v>
       </c>
       <c r="D285" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F285" t="s">
         <v>1523</v>
-      </c>
-      <c r="F285" t="s">
-        <v>1524</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
@@ -9590,7 +9590,7 @@
         <v>131</v>
       </c>
       <c r="F287" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.2">
@@ -9604,7 +9604,7 @@
         <v>131</v>
       </c>
       <c r="F288" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
@@ -9623,10 +9623,10 @@
         <v>1</v>
       </c>
       <c r="D290" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F290" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
@@ -9701,7 +9701,7 @@
         <v>1</v>
       </c>
       <c r="D296" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="G296">
         <v>209</v>
@@ -9715,7 +9715,7 @@
         <v>1</v>
       </c>
       <c r="D297" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="G297">
         <v>229</v>
@@ -9729,7 +9729,7 @@
         <v>1</v>
       </c>
       <c r="D298" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="G298">
         <v>249</v>
@@ -9743,10 +9743,10 @@
         <v>1</v>
       </c>
       <c r="D299" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F299" t="s">
         <v>1531</v>
-      </c>
-      <c r="F299" t="s">
-        <v>1532</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.2">
@@ -9760,7 +9760,7 @@
         <v>133</v>
       </c>
       <c r="F300" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.2">
@@ -9771,10 +9771,10 @@
         <v>1</v>
       </c>
       <c r="D301" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F301" t="s">
         <v>1534</v>
-      </c>
-      <c r="F301" t="s">
-        <v>1535</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
@@ -9785,10 +9785,10 @@
         <v>1</v>
       </c>
       <c r="D302" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F302" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.2">
@@ -9813,7 +9813,7 @@
         <v>1</v>
       </c>
       <c r="D304" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="G304">
         <v>204</v>
@@ -9827,10 +9827,10 @@
         <v>1</v>
       </c>
       <c r="D305" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F305" t="s">
         <v>1537</v>
-      </c>
-      <c r="F305" t="s">
-        <v>1538</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.2">
@@ -9841,10 +9841,10 @@
         <v>1</v>
       </c>
       <c r="D306" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F306" t="s">
         <v>1539</v>
-      </c>
-      <c r="F306" t="s">
-        <v>1540</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.2">
@@ -9925,7 +9925,7 @@
         <v>1</v>
       </c>
       <c r="D312" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="G312">
         <v>226</v>
@@ -9942,7 +9942,7 @@
         <v>131</v>
       </c>
       <c r="F313" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.2">
@@ -9953,10 +9953,10 @@
         <v>1</v>
       </c>
       <c r="D314" t="s">
+        <v>1542</v>
+      </c>
+      <c r="F314" t="s">
         <v>1543</v>
-      </c>
-      <c r="F314" t="s">
-        <v>1544</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.2">
@@ -9967,7 +9967,7 @@
         <v>1</v>
       </c>
       <c r="D315" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="G315">
         <v>207</v>
@@ -9984,7 +9984,7 @@
         <v>131</v>
       </c>
       <c r="F316" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.2">
@@ -10012,7 +10012,7 @@
         <v>131</v>
       </c>
       <c r="F318" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.2">
@@ -10040,7 +10040,7 @@
         <v>131</v>
       </c>
       <c r="F320" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.2">
@@ -10065,10 +10065,10 @@
         <v>1</v>
       </c>
       <c r="D322" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="F322" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.2">
@@ -10096,7 +10096,7 @@
         <v>131</v>
       </c>
       <c r="F324" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.2">
@@ -10110,7 +10110,7 @@
         <v>131</v>
       </c>
       <c r="F325" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.2">
@@ -10152,7 +10152,7 @@
         <v>129</v>
       </c>
       <c r="F328" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.2">
@@ -10171,10 +10171,10 @@
         <v>1</v>
       </c>
       <c r="D330" t="s">
+        <v>1551</v>
+      </c>
+      <c r="F330" t="s">
         <v>1552</v>
-      </c>
-      <c r="F330" t="s">
-        <v>1553</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.2">
@@ -10188,7 +10188,7 @@
         <v>129</v>
       </c>
       <c r="F331" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.2">
@@ -10202,7 +10202,7 @@
         <v>131</v>
       </c>
       <c r="F332" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.2">
@@ -10213,7 +10213,7 @@
         <v>1</v>
       </c>
       <c r="D333" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="G333">
         <v>249</v>
@@ -10235,7 +10235,7 @@
         <v>1</v>
       </c>
       <c r="D335" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="G335">
         <v>209</v>
@@ -10291,7 +10291,7 @@
         <v>1</v>
       </c>
       <c r="D339" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="G339">
         <v>213</v>
@@ -10308,7 +10308,7 @@
         <v>545</v>
       </c>
       <c r="F340" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.2">
@@ -10333,7 +10333,7 @@
         <v>1</v>
       </c>
       <c r="D342" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="G342">
         <v>227</v>
@@ -10350,7 +10350,7 @@
         <v>131</v>
       </c>
       <c r="F343" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.2">
@@ -10361,10 +10361,10 @@
         <v>1</v>
       </c>
       <c r="D344" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="F344" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.2">
@@ -10375,7 +10375,7 @@
         <v>1</v>
       </c>
       <c r="D345" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="G345">
         <v>250</v>
@@ -10389,10 +10389,10 @@
         <v>1</v>
       </c>
       <c r="D346" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="F346" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.2">
@@ -10417,7 +10417,7 @@
         <v>1</v>
       </c>
       <c r="D348" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="G348">
         <v>222</v>
@@ -10445,7 +10445,7 @@
         <v>1</v>
       </c>
       <c r="D350" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="G350">
         <v>213</v>
@@ -10473,7 +10473,7 @@
         <v>1</v>
       </c>
       <c r="D352" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="G352">
         <v>249</v>
@@ -10504,7 +10504,7 @@
         <v>131</v>
       </c>
       <c r="F354" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.2">
@@ -10543,7 +10543,7 @@
         <v>131</v>
       </c>
       <c r="F357" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.2">
@@ -10554,10 +10554,10 @@
         <v>1</v>
       </c>
       <c r="D358" t="s">
+        <v>1568</v>
+      </c>
+      <c r="F358" t="s">
         <v>1569</v>
-      </c>
-      <c r="F358" t="s">
-        <v>1570</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.2">
@@ -10587,7 +10587,7 @@
         <v>131</v>
       </c>
       <c r="F361" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.2">
@@ -10601,7 +10601,7 @@
         <v>131</v>
       </c>
       <c r="F362" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.2">
@@ -10615,7 +10615,7 @@
         <v>131</v>
       </c>
       <c r="F363" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.2">
@@ -10654,7 +10654,7 @@
         <v>1</v>
       </c>
       <c r="D366" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G366">
         <v>204</v>
@@ -10712,7 +10712,7 @@
         <v>1</v>
       </c>
       <c r="D371" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="G371">
         <v>215</v>
@@ -10743,7 +10743,7 @@
         <v>131</v>
       </c>
       <c r="F373" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.2">
@@ -10757,7 +10757,7 @@
         <v>131</v>
       </c>
       <c r="F374" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.2">
@@ -10771,7 +10771,7 @@
         <v>131</v>
       </c>
       <c r="F375" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.2">
@@ -10782,7 +10782,7 @@
         <v>1</v>
       </c>
       <c r="D376" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="G376">
         <v>250</v>
@@ -10852,7 +10852,7 @@
         <v>1</v>
       </c>
       <c r="D381" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="G381">
         <v>211</v>
@@ -10866,10 +10866,10 @@
         <v>1</v>
       </c>
       <c r="D382" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="F382" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.2">
@@ -10883,7 +10883,7 @@
         <v>131</v>
       </c>
       <c r="F383" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.2">
@@ -10897,10 +10897,10 @@
         <v>131</v>
       </c>
       <c r="F384" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="H384" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.2">
@@ -10911,7 +10911,7 @@
         <v>1</v>
       </c>
       <c r="D385" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="G385">
         <v>209</v>
@@ -10947,10 +10947,10 @@
         <v>1</v>
       </c>
       <c r="D388" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F388" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.2">
@@ -10978,7 +10978,7 @@
         <v>131</v>
       </c>
       <c r="F390" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.2">
@@ -10992,7 +10992,7 @@
         <v>131</v>
       </c>
       <c r="F391" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.2">
@@ -11017,7 +11017,7 @@
         <v>1</v>
       </c>
       <c r="D393" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="G393">
         <v>221</v>
@@ -11031,7 +11031,7 @@
         <v>1</v>
       </c>
       <c r="D394" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="G394">
         <v>201</v>
@@ -11048,7 +11048,7 @@
         <v>131</v>
       </c>
       <c r="F395" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.2">
@@ -11062,7 +11062,7 @@
         <v>129</v>
       </c>
       <c r="F396" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.2">
@@ -11073,7 +11073,7 @@
         <v>1</v>
       </c>
       <c r="D397" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="G397">
         <v>209</v>
@@ -11087,10 +11087,10 @@
         <v>1</v>
       </c>
       <c r="D398" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="F398" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.2">
@@ -11101,7 +11101,7 @@
         <v>1</v>
       </c>
       <c r="D399" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G399">
         <v>250</v>
@@ -11118,7 +11118,7 @@
         <v>131</v>
       </c>
       <c r="F400" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.2">
@@ -11132,7 +11132,7 @@
         <v>1034</v>
       </c>
       <c r="F401" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.2">
@@ -11143,7 +11143,7 @@
         <v>1</v>
       </c>
       <c r="D402" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="G402">
         <v>203</v>
@@ -11168,7 +11168,7 @@
         <v>131</v>
       </c>
       <c r="F404" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.2">
@@ -11182,7 +11182,7 @@
         <v>131</v>
       </c>
       <c r="F405" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.2">
@@ -11193,10 +11193,10 @@
         <v>1</v>
       </c>
       <c r="D406" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F406" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.2">
@@ -11210,7 +11210,7 @@
         <v>131</v>
       </c>
       <c r="F407" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.2">
@@ -11271,7 +11271,7 @@
         <v>1</v>
       </c>
       <c r="D412" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="G412">
         <v>227</v>
@@ -11293,7 +11293,7 @@
         <v>1</v>
       </c>
       <c r="D414" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="G414">
         <v>249</v>
@@ -11329,10 +11329,10 @@
         <v>1</v>
       </c>
       <c r="D417" t="s">
+        <v>1596</v>
+      </c>
+      <c r="F417" t="s">
         <v>1597</v>
-      </c>
-      <c r="F417" t="s">
-        <v>1598</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.2">
@@ -11343,7 +11343,7 @@
         <v>1</v>
       </c>
       <c r="D418" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="G418">
         <v>207</v>
@@ -11357,7 +11357,7 @@
         <v>1</v>
       </c>
       <c r="D419" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.2">
@@ -11368,7 +11368,7 @@
         <v>1</v>
       </c>
       <c r="D420" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="G420">
         <v>204</v>
@@ -11410,10 +11410,10 @@
         <v>1</v>
       </c>
       <c r="D423" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F423" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.2">
@@ -11427,7 +11427,7 @@
         <v>131</v>
       </c>
       <c r="F424" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.2">
@@ -11438,10 +11438,10 @@
         <v>1</v>
       </c>
       <c r="D425" t="s">
+        <v>1601</v>
+      </c>
+      <c r="F425" t="s">
         <v>1602</v>
-      </c>
-      <c r="F425" t="s">
-        <v>1603</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.2">
@@ -11497,7 +11497,7 @@
         <v>131</v>
       </c>
       <c r="F429" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.2">
@@ -11553,7 +11553,7 @@
         <v>131</v>
       </c>
       <c r="F433" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.2">
@@ -11578,10 +11578,10 @@
         <v>1</v>
       </c>
       <c r="D435" t="s">
+        <v>1605</v>
+      </c>
+      <c r="F435" t="s">
         <v>1606</v>
-      </c>
-      <c r="F435" t="s">
-        <v>1607</v>
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.2">
@@ -11606,7 +11606,7 @@
         <v>1</v>
       </c>
       <c r="D437" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="G437">
         <v>250</v>
@@ -11634,7 +11634,7 @@
         <v>1</v>
       </c>
       <c r="H439" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.2">
@@ -11651,7 +11651,7 @@
         <v>254</v>
       </c>
       <c r="H440" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.2">
@@ -11665,7 +11665,7 @@
         <v>131</v>
       </c>
       <c r="F441" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.2">
@@ -11676,10 +11676,10 @@
         <v>1</v>
       </c>
       <c r="D442" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="F442" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.2">
@@ -11690,10 +11690,10 @@
         <v>1</v>
       </c>
       <c r="D443" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="F443" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.2">
@@ -11707,7 +11707,7 @@
         <v>129</v>
       </c>
       <c r="F444" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.2">
@@ -11718,13 +11718,13 @@
         <v>1</v>
       </c>
       <c r="D445" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="F445" t="s">
+        <v>1612</v>
+      </c>
+      <c r="H445" t="s">
         <v>1613</v>
-      </c>
-      <c r="H445" t="s">
-        <v>1614</v>
       </c>
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.2">
@@ -11743,7 +11743,7 @@
         <v>1</v>
       </c>
       <c r="D447" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="G447">
         <v>209</v>
@@ -12304,7 +12304,7 @@
         <v>129</v>
       </c>
       <c r="F489" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.2">
@@ -12318,7 +12318,7 @@
         <v>131</v>
       </c>
       <c r="F490" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.2">
@@ -12343,10 +12343,10 @@
         <v>1</v>
       </c>
       <c r="D492" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="F492" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.2">
@@ -12363,7 +12363,7 @@
         <v>226</v>
       </c>
       <c r="H493" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.2">
@@ -12377,7 +12377,7 @@
         <v>131</v>
       </c>
       <c r="F494" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.2">
@@ -12388,7 +12388,7 @@
         <v>1</v>
       </c>
       <c r="D495" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="G495">
         <v>231</v>
@@ -12402,10 +12402,10 @@
         <v>1</v>
       </c>
       <c r="D496" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F496" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.2">
@@ -12416,10 +12416,10 @@
         <v>1</v>
       </c>
       <c r="D497" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="F497" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.2">
@@ -12489,7 +12489,7 @@
         <v>1034</v>
       </c>
       <c r="F502" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.2">
@@ -12511,7 +12511,7 @@
         <v>131</v>
       </c>
       <c r="F504" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.2">
@@ -12522,10 +12522,10 @@
         <v>1</v>
       </c>
       <c r="D505" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F505" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.2">
@@ -12564,7 +12564,7 @@
         <v>1</v>
       </c>
       <c r="D508" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.2">
@@ -12575,7 +12575,7 @@
         <v>1</v>
       </c>
       <c r="D509" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.2">
@@ -12589,7 +12589,7 @@
         <v>131</v>
       </c>
       <c r="F510" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.2">
@@ -12600,10 +12600,10 @@
         <v>1</v>
       </c>
       <c r="D511" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="F511" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.2">
@@ -12628,7 +12628,7 @@
         <v>1</v>
       </c>
       <c r="D513" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="G513">
         <v>253</v>
@@ -12642,7 +12642,7 @@
         <v>1</v>
       </c>
       <c r="D514" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="G514">
         <v>209</v>
@@ -12659,7 +12659,7 @@
         <v>131</v>
       </c>
       <c r="F515" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.2">
@@ -12670,10 +12670,10 @@
         <v>1</v>
       </c>
       <c r="D516" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="F516" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.2">
@@ -12687,7 +12687,7 @@
         <v>131</v>
       </c>
       <c r="F517" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.2">
@@ -12698,13 +12698,13 @@
         <v>1</v>
       </c>
       <c r="D518" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="F518" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="H518" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.2">
@@ -12718,7 +12718,7 @@
         <v>131</v>
       </c>
       <c r="F519" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.2">
@@ -12762,7 +12762,7 @@
         <v>131</v>
       </c>
       <c r="F523" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.2">
@@ -12787,10 +12787,10 @@
         <v>1</v>
       </c>
       <c r="D525" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="F525" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.2">
@@ -12801,13 +12801,13 @@
         <v>1</v>
       </c>
       <c r="D526" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="F526" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="H526" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.2">
@@ -12818,7 +12818,7 @@
         <v>1</v>
       </c>
       <c r="D527" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G527">
         <v>212</v>
@@ -12874,13 +12874,13 @@
         <v>1</v>
       </c>
       <c r="D531" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="F531" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="H531" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.2">
@@ -12905,7 +12905,7 @@
         <v>1</v>
       </c>
       <c r="D533" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="G533">
         <v>203</v>
@@ -12919,7 +12919,7 @@
         <v>1</v>
       </c>
       <c r="D534" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.2">
@@ -12933,7 +12933,7 @@
         <v>131</v>
       </c>
       <c r="F535" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.2">
@@ -12944,7 +12944,7 @@
         <v>1</v>
       </c>
       <c r="D536" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="G536">
         <v>250</v>
@@ -12961,7 +12961,7 @@
         <v>133</v>
       </c>
       <c r="F537" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.2">
@@ -12972,7 +12972,7 @@
         <v>1</v>
       </c>
       <c r="D538" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="G538">
         <v>228</v>
@@ -12992,7 +12992,7 @@
         <v>131</v>
       </c>
       <c r="F539" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.2">
@@ -13045,7 +13045,7 @@
         <v>1</v>
       </c>
       <c r="D543" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="G543">
         <v>216</v>
@@ -13062,7 +13062,7 @@
         <v>131</v>
       </c>
       <c r="F544" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.2">
@@ -13104,7 +13104,7 @@
         <v>131</v>
       </c>
       <c r="F547" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.2">
@@ -13157,7 +13157,7 @@
         <v>1</v>
       </c>
       <c r="D551" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="G551">
         <v>210</v>
@@ -13182,7 +13182,7 @@
         <v>129</v>
       </c>
       <c r="F553" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.2">
@@ -13193,7 +13193,7 @@
         <v>1</v>
       </c>
       <c r="D554" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="G554">
         <v>250</v>
@@ -13246,7 +13246,7 @@
         <v>131</v>
       </c>
       <c r="F558" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.2">
@@ -13260,7 +13260,7 @@
         <v>129</v>
       </c>
       <c r="F559" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.2">
@@ -13338,7 +13338,7 @@
         <v>129</v>
       </c>
       <c r="F565" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="566" spans="1:8" x14ac:dyDescent="0.2">
@@ -13352,10 +13352,10 @@
         <v>131</v>
       </c>
       <c r="F566" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="H566" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="567" spans="1:8" x14ac:dyDescent="0.2">
@@ -13366,10 +13366,10 @@
         <v>1</v>
       </c>
       <c r="D567" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="F567" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="568" spans="1:8" x14ac:dyDescent="0.2">
@@ -13380,7 +13380,7 @@
         <v>1</v>
       </c>
       <c r="D568" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="G568">
         <v>214</v>
@@ -13408,10 +13408,10 @@
         <v>1</v>
       </c>
       <c r="D570" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="F570" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="571" spans="1:8" x14ac:dyDescent="0.2">
@@ -13436,7 +13436,7 @@
         <v>1</v>
       </c>
       <c r="D572" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="G572">
         <v>227</v>
@@ -13477,7 +13477,7 @@
         <v>131</v>
       </c>
       <c r="F576" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="577" spans="1:8" x14ac:dyDescent="0.2">
@@ -13488,7 +13488,7 @@
         <v>1</v>
       </c>
       <c r="D577" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="G577">
         <v>228</v>
@@ -13544,7 +13544,7 @@
         <v>1</v>
       </c>
       <c r="D581" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="G581">
         <v>204</v>
@@ -13575,7 +13575,7 @@
         <v>131</v>
       </c>
       <c r="F583" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="584" spans="1:8" x14ac:dyDescent="0.2">
@@ -13600,10 +13600,10 @@
         <v>1</v>
       </c>
       <c r="D585" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="F585" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="586" spans="1:8" x14ac:dyDescent="0.2">
@@ -13645,7 +13645,7 @@
         <v>131</v>
       </c>
       <c r="F588" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="589" spans="1:8" x14ac:dyDescent="0.2">
@@ -13670,7 +13670,7 @@
         <v>1</v>
       </c>
       <c r="D590" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="G590">
         <v>249</v>
@@ -13687,10 +13687,10 @@
         <v>131</v>
       </c>
       <c r="F591" t="s">
+        <v>1662</v>
+      </c>
+      <c r="H591" t="s">
         <v>1663</v>
-      </c>
-      <c r="H591" t="s">
-        <v>1664</v>
       </c>
     </row>
     <row r="592" spans="1:8" x14ac:dyDescent="0.2">
@@ -13720,7 +13720,7 @@
         <v>131</v>
       </c>
       <c r="F594" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="595" spans="1:8" x14ac:dyDescent="0.2">
@@ -13731,10 +13731,10 @@
         <v>1</v>
       </c>
       <c r="D595" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="F595" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="596" spans="1:8" x14ac:dyDescent="0.2">
@@ -13748,7 +13748,7 @@
         <v>131</v>
       </c>
       <c r="H596" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="597" spans="1:8" x14ac:dyDescent="0.2">
@@ -13759,7 +13759,7 @@
         <v>1</v>
       </c>
       <c r="D597" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="G597">
         <v>212</v>
@@ -13773,7 +13773,7 @@
         <v>1</v>
       </c>
       <c r="D598" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="G598">
         <v>215</v>
@@ -13787,7 +13787,7 @@
         <v>1</v>
       </c>
       <c r="D599" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="G599">
         <v>252</v>
@@ -13882,7 +13882,7 @@
         <v>129</v>
       </c>
       <c r="F606" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="607" spans="1:8" x14ac:dyDescent="0.2">
@@ -13904,7 +13904,7 @@
         <v>131</v>
       </c>
       <c r="F608" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="609" spans="1:8" x14ac:dyDescent="0.2">
@@ -13918,7 +13918,7 @@
         <v>1034</v>
       </c>
       <c r="F609" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="610" spans="1:8" x14ac:dyDescent="0.2">
@@ -13929,10 +13929,10 @@
         <v>1</v>
       </c>
       <c r="D610" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="H610" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="611" spans="1:8" x14ac:dyDescent="0.2">
@@ -13943,7 +13943,7 @@
         <v>1</v>
       </c>
       <c r="H611" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="612" spans="1:8" x14ac:dyDescent="0.2">
@@ -13954,10 +13954,10 @@
         <v>1</v>
       </c>
       <c r="D612" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="F612" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="613" spans="1:8" x14ac:dyDescent="0.2">
@@ -13971,7 +13971,7 @@
         <v>129</v>
       </c>
       <c r="F613" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="614" spans="1:8" x14ac:dyDescent="0.2">
@@ -13982,13 +13982,13 @@
         <v>1</v>
       </c>
       <c r="D614" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="F614" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="H614" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="615" spans="1:8" x14ac:dyDescent="0.2">
@@ -14002,7 +14002,7 @@
         <v>1034</v>
       </c>
       <c r="F615" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="616" spans="1:8" x14ac:dyDescent="0.2">
@@ -14027,7 +14027,7 @@
         <v>1</v>
       </c>
       <c r="D617" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="G617">
         <v>204</v>
@@ -14044,7 +14044,7 @@
         <v>131</v>
       </c>
       <c r="F618" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="619" spans="1:8" x14ac:dyDescent="0.2">
@@ -14055,7 +14055,7 @@
         <v>1</v>
       </c>
       <c r="D619" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="G619">
         <v>227</v>
@@ -14097,7 +14097,7 @@
         <v>1</v>
       </c>
       <c r="D622" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="G622">
         <v>213</v>
@@ -14119,7 +14119,7 @@
         <v>1</v>
       </c>
       <c r="D624" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="G624">
         <v>227</v>
@@ -14147,7 +14147,7 @@
         <v>1</v>
       </c>
       <c r="D626" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.2">
@@ -14189,7 +14189,7 @@
         <v>131</v>
       </c>
       <c r="F629" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.2">
@@ -14200,7 +14200,7 @@
         <v>1</v>
       </c>
       <c r="D630" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="G630">
         <v>227</v>
@@ -14214,7 +14214,7 @@
         <v>1</v>
       </c>
       <c r="D631" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="G631">
         <v>256</v>
@@ -14259,7 +14259,7 @@
         <v>131</v>
       </c>
       <c r="F634" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.2">
@@ -14270,7 +14270,7 @@
         <v>1</v>
       </c>
       <c r="D635" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="G635">
         <v>250</v>
@@ -14292,10 +14292,10 @@
         <v>1</v>
       </c>
       <c r="D637" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="F637" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="638" spans="1:7" x14ac:dyDescent="0.2">
@@ -14306,10 +14306,10 @@
         <v>1</v>
       </c>
       <c r="D638" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="F638" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="639" spans="1:7" x14ac:dyDescent="0.2">
@@ -14323,7 +14323,7 @@
         <v>131</v>
       </c>
       <c r="F639" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.2">
@@ -14337,7 +14337,7 @@
         <v>131</v>
       </c>
       <c r="F640" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="641" spans="1:7" x14ac:dyDescent="0.2">
@@ -14365,7 +14365,7 @@
         <v>131</v>
       </c>
       <c r="F642" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="643" spans="1:7" x14ac:dyDescent="0.2">
@@ -14376,7 +14376,7 @@
         <v>1</v>
       </c>
       <c r="D643" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G643">
         <v>209</v>
@@ -14783,10 +14783,10 @@
         <v>1</v>
       </c>
       <c r="D674" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F674" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="675" spans="1:7" x14ac:dyDescent="0.2">
@@ -14800,7 +14800,7 @@
         <v>131</v>
       </c>
       <c r="F675" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="676" spans="1:7" x14ac:dyDescent="0.2">
@@ -14863,7 +14863,7 @@
         <v>1</v>
       </c>
       <c r="D681" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="G681">
         <v>256</v>
@@ -14877,10 +14877,10 @@
         <v>1</v>
       </c>
       <c r="D682" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="F682" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="683" spans="1:7" x14ac:dyDescent="0.2">
@@ -14899,7 +14899,7 @@
         <v>1</v>
       </c>
       <c r="D684" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G684">
         <v>250</v>
@@ -14944,7 +14944,7 @@
         <v>131</v>
       </c>
       <c r="F687" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="688" spans="1:7" x14ac:dyDescent="0.2">
@@ -14955,7 +14955,7 @@
         <v>1</v>
       </c>
       <c r="D688" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="G688">
         <v>249</v>
@@ -14983,7 +14983,7 @@
         <v>1</v>
       </c>
       <c r="D690" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="G690">
         <v>251</v>
@@ -14997,7 +14997,7 @@
         <v>1</v>
       </c>
       <c r="D691" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="G691">
         <v>220</v>
@@ -15011,7 +15011,7 @@
         <v>1</v>
       </c>
       <c r="D692" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="G692">
         <v>257</v>
@@ -15028,7 +15028,7 @@
         <v>131</v>
       </c>
       <c r="F693" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="694" spans="1:8" x14ac:dyDescent="0.2">
@@ -15039,10 +15039,10 @@
         <v>1</v>
       </c>
       <c r="D694" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="F694" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="695" spans="1:8" x14ac:dyDescent="0.2">
@@ -15053,7 +15053,7 @@
         <v>1</v>
       </c>
       <c r="D695" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="G695">
         <v>227</v>
@@ -15067,13 +15067,13 @@
         <v>1</v>
       </c>
       <c r="D696" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G696">
         <v>250</v>
       </c>
       <c r="H696" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="697" spans="1:8" x14ac:dyDescent="0.2">
@@ -15084,7 +15084,7 @@
         <v>1</v>
       </c>
       <c r="D697" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="G697">
         <v>219</v>
@@ -15098,7 +15098,7 @@
         <v>1</v>
       </c>
       <c r="D698" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="G698">
         <v>204</v>
@@ -15129,7 +15129,7 @@
         <v>129</v>
       </c>
       <c r="F700" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="701" spans="1:8" x14ac:dyDescent="0.2">
@@ -15143,7 +15143,7 @@
         <v>131</v>
       </c>
       <c r="F701" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="702" spans="1:8" x14ac:dyDescent="0.2">
@@ -15179,7 +15179,7 @@
         <v>131</v>
       </c>
       <c r="F704" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="705" spans="1:7" x14ac:dyDescent="0.2">
@@ -15198,7 +15198,7 @@
         <v>1</v>
       </c>
       <c r="D706" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="G706">
         <v>230</v>
@@ -15212,7 +15212,7 @@
         <v>1</v>
       </c>
       <c r="D707" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G707">
         <v>227</v>
@@ -15229,7 +15229,7 @@
         <v>131</v>
       </c>
       <c r="F708" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.2">
@@ -15243,7 +15243,7 @@
         <v>131</v>
       </c>
       <c r="F709" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="710" spans="1:7" x14ac:dyDescent="0.2">
@@ -15257,7 +15257,7 @@
         <v>131</v>
       </c>
       <c r="F710" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.2">
@@ -15271,7 +15271,7 @@
         <v>131</v>
       </c>
       <c r="F711" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="712" spans="1:7" x14ac:dyDescent="0.2">
@@ -15285,7 +15285,7 @@
         <v>131</v>
       </c>
       <c r="F712" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="713" spans="1:7" x14ac:dyDescent="0.2">
@@ -15296,7 +15296,7 @@
         <v>1</v>
       </c>
       <c r="D713" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="G713">
         <v>210</v>
@@ -15341,7 +15341,7 @@
         <v>131</v>
       </c>
       <c r="F716" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="717" spans="1:7" x14ac:dyDescent="0.2">
@@ -15355,7 +15355,7 @@
         <v>131</v>
       </c>
       <c r="F717" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="718" spans="1:7" x14ac:dyDescent="0.2">
@@ -15397,7 +15397,7 @@
         <v>129</v>
       </c>
       <c r="F720" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="721" spans="1:8" x14ac:dyDescent="0.2">
@@ -15408,7 +15408,7 @@
         <v>1</v>
       </c>
       <c r="D721" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="G721">
         <v>228</v>
@@ -15425,7 +15425,7 @@
         <v>129</v>
       </c>
       <c r="F722" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="723" spans="1:8" x14ac:dyDescent="0.2">
@@ -15439,7 +15439,7 @@
         <v>131</v>
       </c>
       <c r="F723" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="724" spans="1:8" x14ac:dyDescent="0.2">
@@ -15456,7 +15456,7 @@
         <v>249</v>
       </c>
       <c r="H724" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="725" spans="1:8" x14ac:dyDescent="0.2">
@@ -15470,7 +15470,7 @@
         <v>131</v>
       </c>
       <c r="F725" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="726" spans="1:8" x14ac:dyDescent="0.2">
@@ -15484,7 +15484,7 @@
         <v>131</v>
       </c>
       <c r="F726" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="727" spans="1:8" x14ac:dyDescent="0.2">
@@ -15495,7 +15495,7 @@
         <v>1</v>
       </c>
       <c r="D727" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="G727">
         <v>204</v>
@@ -15512,7 +15512,7 @@
         <v>131</v>
       </c>
       <c r="F728" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="729" spans="1:8" x14ac:dyDescent="0.2">
@@ -15540,7 +15540,7 @@
         <v>129</v>
       </c>
       <c r="F730" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="731" spans="1:8" x14ac:dyDescent="0.2">
@@ -15551,7 +15551,7 @@
         <v>1</v>
       </c>
       <c r="D731" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="G731">
         <v>227</v>
@@ -15565,10 +15565,10 @@
         <v>1</v>
       </c>
       <c r="D732" t="s">
+        <v>1716</v>
+      </c>
+      <c r="F732" t="s">
         <v>1717</v>
-      </c>
-      <c r="F732" t="s">
-        <v>1718</v>
       </c>
     </row>
     <row r="733" spans="1:8" x14ac:dyDescent="0.2">
@@ -15579,10 +15579,10 @@
         <v>1</v>
       </c>
       <c r="D733" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="F733" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="734" spans="1:8" x14ac:dyDescent="0.2">
@@ -15607,7 +15607,7 @@
         <v>1</v>
       </c>
       <c r="D735" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="736" spans="1:8" x14ac:dyDescent="0.2">
@@ -15618,7 +15618,7 @@
         <v>1</v>
       </c>
       <c r="D736" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="G736">
         <v>211</v>
@@ -15635,7 +15635,7 @@
         <v>131</v>
       </c>
       <c r="F737" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="738" spans="1:7" x14ac:dyDescent="0.2">
@@ -15649,7 +15649,7 @@
         <v>131</v>
       </c>
       <c r="F738" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="739" spans="1:7" x14ac:dyDescent="0.2">
@@ -15674,7 +15674,7 @@
         <v>1</v>
       </c>
       <c r="D740" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G740">
         <v>210</v>
@@ -15696,7 +15696,7 @@
         <v>1</v>
       </c>
       <c r="D742" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="G742">
         <v>204</v>
@@ -15710,7 +15710,7 @@
         <v>1</v>
       </c>
       <c r="D743" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="G743">
         <v>203</v>
@@ -15752,7 +15752,7 @@
         <v>1</v>
       </c>
       <c r="D746" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="G746">
         <v>213</v>
@@ -15819,7 +15819,7 @@
         <v>131</v>
       </c>
       <c r="F751" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="752" spans="1:7" x14ac:dyDescent="0.2">
@@ -15847,7 +15847,7 @@
         <v>129</v>
       </c>
       <c r="F753" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="754" spans="1:8" x14ac:dyDescent="0.2">
@@ -15861,7 +15861,7 @@
         <v>131</v>
       </c>
       <c r="F754" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="755" spans="1:8" x14ac:dyDescent="0.2">
@@ -15875,7 +15875,7 @@
         <v>131</v>
       </c>
       <c r="F755" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="756" spans="1:8" x14ac:dyDescent="0.2">
@@ -15889,7 +15889,7 @@
         <v>131</v>
       </c>
       <c r="F756" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="757" spans="1:8" x14ac:dyDescent="0.2">
@@ -15900,7 +15900,7 @@
         <v>1</v>
       </c>
       <c r="D757" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="G757">
         <v>212</v>
@@ -15928,7 +15928,7 @@
         <v>1</v>
       </c>
       <c r="D759" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="G759">
         <v>219</v>
@@ -15942,7 +15942,7 @@
         <v>1</v>
       </c>
       <c r="D760" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="G760">
         <v>257</v>
@@ -15959,7 +15959,7 @@
         <v>131</v>
       </c>
       <c r="F761" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="762" spans="1:8" x14ac:dyDescent="0.2">
@@ -15970,10 +15970,10 @@
         <v>1</v>
       </c>
       <c r="D762" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="H762" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="763" spans="1:8" x14ac:dyDescent="0.2">
@@ -15998,7 +15998,7 @@
         <v>1</v>
       </c>
       <c r="D764" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G764">
         <v>213</v>
@@ -16026,7 +16026,7 @@
         <v>1</v>
       </c>
       <c r="D766" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="767" spans="1:8" x14ac:dyDescent="0.2">
@@ -16051,7 +16051,7 @@
         <v>1</v>
       </c>
       <c r="D768" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="G768">
         <v>249</v>
@@ -16079,7 +16079,7 @@
         <v>1</v>
       </c>
       <c r="D770" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="G770">
         <v>227</v>
@@ -16099,7 +16099,7 @@
         <v>215</v>
       </c>
       <c r="H771" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="772" spans="1:8" x14ac:dyDescent="0.2">
@@ -16140,7 +16140,7 @@
         <v>1</v>
       </c>
       <c r="D775" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="G775">
         <v>230</v>
@@ -16168,13 +16168,13 @@
         <v>1</v>
       </c>
       <c r="D777" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="G777">
         <v>249</v>
       </c>
       <c r="H777" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="778" spans="1:8" x14ac:dyDescent="0.2">
@@ -16308,7 +16308,7 @@
         <v>131</v>
       </c>
       <c r="F787" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="788" spans="1:8" x14ac:dyDescent="0.2">
@@ -16319,7 +16319,7 @@
         <v>1</v>
       </c>
       <c r="D788" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="G788">
         <v>227</v>
@@ -16336,7 +16336,7 @@
         <v>131</v>
       </c>
       <c r="F789" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="790" spans="1:8" x14ac:dyDescent="0.2">
@@ -16361,7 +16361,7 @@
         <v>1</v>
       </c>
       <c r="D791" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="G791">
         <v>202</v>
@@ -16375,7 +16375,7 @@
         <v>1</v>
       </c>
       <c r="D792" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="G792">
         <v>249</v>
@@ -16389,10 +16389,10 @@
         <v>1</v>
       </c>
       <c r="D793" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="F793" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="794" spans="1:8" x14ac:dyDescent="0.2">
@@ -16403,7 +16403,7 @@
         <v>1</v>
       </c>
       <c r="D794" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="G794">
         <v>208</v>
@@ -16445,13 +16445,13 @@
         <v>1</v>
       </c>
       <c r="D797" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="F797" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="H797" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="798" spans="1:8" x14ac:dyDescent="0.2">
@@ -16465,7 +16465,7 @@
         <v>131</v>
       </c>
       <c r="F798" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="799" spans="1:8" x14ac:dyDescent="0.2">
@@ -16476,10 +16476,10 @@
         <v>1</v>
       </c>
       <c r="D799" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F799" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="800" spans="1:8" x14ac:dyDescent="0.2">
@@ -16490,7 +16490,7 @@
         <v>1</v>
       </c>
       <c r="D800" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G800">
         <v>227</v>
@@ -16518,7 +16518,7 @@
         <v>1</v>
       </c>
       <c r="D802" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="G802">
         <v>249</v>
@@ -16532,7 +16532,7 @@
         <v>1</v>
       </c>
       <c r="D803" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="G803">
         <v>216</v>
@@ -16549,7 +16549,7 @@
         <v>131</v>
       </c>
       <c r="F804" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="805" spans="1:8" x14ac:dyDescent="0.2">
@@ -16560,7 +16560,7 @@
         <v>1</v>
       </c>
       <c r="H805" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="806" spans="1:8" x14ac:dyDescent="0.2">
@@ -16574,7 +16574,7 @@
         <v>131</v>
       </c>
       <c r="F806" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="807" spans="1:8" x14ac:dyDescent="0.2">
@@ -16588,7 +16588,7 @@
         <v>129</v>
       </c>
       <c r="F807" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="808" spans="1:8" x14ac:dyDescent="0.2">
@@ -16602,7 +16602,7 @@
         <v>131</v>
       </c>
       <c r="F808" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="809" spans="1:8" x14ac:dyDescent="0.2">
@@ -16621,10 +16621,10 @@
         <v>1</v>
       </c>
       <c r="D810" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="F810" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="811" spans="1:8" x14ac:dyDescent="0.2">
@@ -16635,7 +16635,7 @@
         <v>1</v>
       </c>
       <c r="D811" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="G811">
         <v>222</v>
@@ -16652,7 +16652,7 @@
         <v>131</v>
       </c>
       <c r="F812" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="813" spans="1:8" x14ac:dyDescent="0.2">
@@ -16680,7 +16680,7 @@
         <v>131</v>
       </c>
       <c r="F814" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="815" spans="1:8" x14ac:dyDescent="0.2">
@@ -16722,7 +16722,7 @@
         <v>131</v>
       </c>
       <c r="F817" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="818" spans="1:7" x14ac:dyDescent="0.2">
@@ -16736,7 +16736,7 @@
         <v>131</v>
       </c>
       <c r="F818" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="819" spans="1:7" x14ac:dyDescent="0.2">
@@ -16747,7 +16747,7 @@
         <v>1</v>
       </c>
       <c r="D819" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G819">
         <v>202</v>
@@ -16764,7 +16764,7 @@
         <v>129</v>
       </c>
       <c r="F820" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="821" spans="1:7" x14ac:dyDescent="0.2">
@@ -16778,7 +16778,7 @@
         <v>129</v>
       </c>
       <c r="F821" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="822" spans="1:7" x14ac:dyDescent="0.2">
@@ -16792,7 +16792,7 @@
         <v>131</v>
       </c>
       <c r="F822" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="823" spans="1:7" x14ac:dyDescent="0.2">
@@ -16820,7 +16820,7 @@
         <v>131</v>
       </c>
       <c r="F824" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="825" spans="1:7" x14ac:dyDescent="0.2">
@@ -16839,7 +16839,7 @@
         <v>1</v>
       </c>
       <c r="D826" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="G826">
         <v>227</v>
@@ -16886,7 +16886,7 @@
         <v>131</v>
       </c>
       <c r="F830" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="831" spans="1:7" x14ac:dyDescent="0.2">
@@ -16900,7 +16900,7 @@
         <v>1034</v>
       </c>
       <c r="F831" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="832" spans="1:7" x14ac:dyDescent="0.2">
@@ -16911,7 +16911,7 @@
         <v>1</v>
       </c>
       <c r="D832" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="G832">
         <v>249</v>
@@ -16925,7 +16925,7 @@
         <v>1</v>
       </c>
       <c r="D833" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="G833">
         <v>227</v>
@@ -16939,7 +16939,7 @@
         <v>1</v>
       </c>
       <c r="D834" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="G834">
         <v>254</v>
@@ -16970,7 +16970,7 @@
         <v>131</v>
       </c>
       <c r="F836" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="837" spans="1:8" x14ac:dyDescent="0.2">
@@ -16987,7 +16987,7 @@
         <v>249</v>
       </c>
       <c r="H837" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="838" spans="1:8" x14ac:dyDescent="0.2">
@@ -17026,7 +17026,7 @@
         <v>1</v>
       </c>
       <c r="D840" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="G840">
         <v>249</v>
@@ -17040,7 +17040,7 @@
         <v>1</v>
       </c>
       <c r="D841" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="G841">
         <v>256</v>
@@ -17054,10 +17054,10 @@
         <v>1</v>
       </c>
       <c r="D842" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F842" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="843" spans="1:8" x14ac:dyDescent="0.2">
@@ -17106,10 +17106,10 @@
         <v>1</v>
       </c>
       <c r="D847" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="F847" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="848" spans="1:8" x14ac:dyDescent="0.2">
@@ -17134,7 +17134,7 @@
         <v>1</v>
       </c>
       <c r="D849" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="G849">
         <v>211</v>
@@ -17173,7 +17173,7 @@
         <v>131</v>
       </c>
       <c r="F852" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="853" spans="1:8" x14ac:dyDescent="0.2">
@@ -17184,10 +17184,10 @@
         <v>1</v>
       </c>
       <c r="D853" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="F853" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="854" spans="1:8" x14ac:dyDescent="0.2">
@@ -17212,7 +17212,7 @@
         <v>1</v>
       </c>
       <c r="D855" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="G855">
         <v>253</v>
@@ -17248,13 +17248,13 @@
         <v>1</v>
       </c>
       <c r="D858" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="G858">
         <v>227</v>
       </c>
       <c r="H858" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="859" spans="1:8" x14ac:dyDescent="0.2">
@@ -17265,10 +17265,10 @@
         <v>1</v>
       </c>
       <c r="D859" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="H859" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="860" spans="1:8" x14ac:dyDescent="0.2">
@@ -17332,7 +17332,7 @@
         <v>131</v>
       </c>
       <c r="F864" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="865" spans="1:7" x14ac:dyDescent="0.2">
@@ -17357,10 +17357,10 @@
         <v>1</v>
       </c>
       <c r="D866" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="F866" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="867" spans="1:7" x14ac:dyDescent="0.2">
@@ -17379,10 +17379,10 @@
         <v>1</v>
       </c>
       <c r="D868" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="F868" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="869" spans="1:7" x14ac:dyDescent="0.2">
@@ -17393,10 +17393,10 @@
         <v>1</v>
       </c>
       <c r="D869" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F869" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="870" spans="1:7" x14ac:dyDescent="0.2">
@@ -17410,7 +17410,7 @@
         <v>131</v>
       </c>
       <c r="F870" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="871" spans="1:7" x14ac:dyDescent="0.2">
@@ -17465,7 +17465,7 @@
         <v>1</v>
       </c>
       <c r="D875" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="G875">
         <v>227</v>
@@ -17482,7 +17482,7 @@
         <v>131</v>
       </c>
       <c r="F876" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="877" spans="1:7" x14ac:dyDescent="0.2">
@@ -17496,7 +17496,7 @@
         <v>131</v>
       </c>
       <c r="F877" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="878" spans="1:7" x14ac:dyDescent="0.2">
@@ -17507,7 +17507,7 @@
         <v>1</v>
       </c>
       <c r="D878" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="G878">
         <v>257</v>
@@ -17524,7 +17524,7 @@
         <v>129</v>
       </c>
       <c r="F879" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="880" spans="1:7" x14ac:dyDescent="0.2">
@@ -17873,7 +17873,7 @@
         <v>1</v>
       </c>
       <c r="D905" t="s">
-        <v>1039</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="906" spans="1:7" x14ac:dyDescent="0.2">
@@ -17887,7 +17887,7 @@
         <v>131</v>
       </c>
       <c r="F906" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="907" spans="1:7" x14ac:dyDescent="0.2">
@@ -17901,7 +17901,7 @@
         <v>131</v>
       </c>
       <c r="F907" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="908" spans="1:7" x14ac:dyDescent="0.2">
@@ -17923,7 +17923,7 @@
         <v>131</v>
       </c>
       <c r="F909" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="910" spans="1:7" x14ac:dyDescent="0.2">
@@ -17937,7 +17937,7 @@
         <v>131</v>
       </c>
       <c r="F910" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="911" spans="1:7" x14ac:dyDescent="0.2">
@@ -17959,7 +17959,7 @@
         <v>131</v>
       </c>
       <c r="F912" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="913" spans="1:7" x14ac:dyDescent="0.2">
@@ -18009,7 +18009,7 @@
         <v>131</v>
       </c>
       <c r="F916" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="917" spans="1:7" x14ac:dyDescent="0.2">
@@ -18028,10 +18028,10 @@
         <v>1</v>
       </c>
       <c r="D918" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F918" t="s">
         <v>1046</v>
-      </c>
-      <c r="F918" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="919" spans="1:7" x14ac:dyDescent="0.2">
@@ -18045,7 +18045,7 @@
         <v>1034</v>
       </c>
       <c r="F919" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="920" spans="1:7" x14ac:dyDescent="0.2">
@@ -18073,7 +18073,7 @@
         <v>131</v>
       </c>
       <c r="F921" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="922" spans="1:7" x14ac:dyDescent="0.2">
@@ -18087,7 +18087,7 @@
         <v>131</v>
       </c>
       <c r="F922" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="923" spans="1:7" x14ac:dyDescent="0.2">
@@ -18098,7 +18098,7 @@
         <v>1</v>
       </c>
       <c r="D923" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G923">
         <v>249</v>
@@ -18120,7 +18120,7 @@
     </row>
     <row r="925" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B925">
         <v>1</v>
@@ -18129,12 +18129,12 @@
         <v>131</v>
       </c>
       <c r="F925" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="926" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B926">
         <v>1</v>
@@ -18143,12 +18143,12 @@
         <v>131</v>
       </c>
       <c r="F926" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="927" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B927">
         <v>1</v>
@@ -18157,18 +18157,18 @@
         <v>1034</v>
       </c>
       <c r="F927" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="928" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B928">
         <v>1</v>
       </c>
       <c r="D928" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="G928">
         <v>216</v>
@@ -18176,7 +18176,7 @@
     </row>
     <row r="929" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B929">
         <v>1</v>
@@ -18190,7 +18190,7 @@
     </row>
     <row r="930" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B930">
         <v>1</v>
@@ -18204,7 +18204,7 @@
     </row>
     <row r="931" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B931">
         <v>1</v>
@@ -18218,7 +18218,7 @@
     </row>
     <row r="932" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B932">
         <v>1</v>
@@ -18232,21 +18232,21 @@
     </row>
     <row r="933" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B933">
         <v>1</v>
       </c>
       <c r="D933" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="F933" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="934" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B934">
         <v>1</v>
@@ -18255,18 +18255,18 @@
         <v>131</v>
       </c>
       <c r="F934" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="935" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B935">
         <v>1</v>
       </c>
       <c r="D935" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="G935">
         <v>204</v>
@@ -18274,7 +18274,7 @@
     </row>
     <row r="936" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B936">
         <v>1</v>
@@ -18283,12 +18283,12 @@
         <v>131</v>
       </c>
       <c r="F936" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="937" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B937">
         <v>1</v>
@@ -18297,12 +18297,12 @@
         <v>131</v>
       </c>
       <c r="F937" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="938" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B938">
         <v>1</v>
@@ -18316,13 +18316,13 @@
     </row>
     <row r="939" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A939" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B939">
         <v>1</v>
       </c>
       <c r="D939" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="G939">
         <v>249</v>
@@ -18330,7 +18330,7 @@
     </row>
     <row r="940" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B940">
         <v>1</v>
@@ -18339,12 +18339,12 @@
         <v>131</v>
       </c>
       <c r="F940" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="941" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B941">
         <v>1</v>
@@ -18353,18 +18353,18 @@
         <v>131</v>
       </c>
       <c r="F941" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="942" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B942">
         <v>1</v>
       </c>
       <c r="D942" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G942">
         <v>207</v>
@@ -18372,7 +18372,7 @@
     </row>
     <row r="943" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B943">
         <v>1</v>
@@ -18386,13 +18386,13 @@
     </row>
     <row r="944" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B944">
         <v>1</v>
       </c>
       <c r="D944" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="G944">
         <v>227</v>
@@ -18400,21 +18400,21 @@
     </row>
     <row r="945" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B945">
         <v>1</v>
       </c>
       <c r="D945" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="F945" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="946" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A946" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B946">
         <v>1</v>
@@ -18428,7 +18428,7 @@
     </row>
     <row r="947" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A947" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B947">
         <v>1</v>
@@ -18442,7 +18442,7 @@
     </row>
     <row r="948" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B948">
         <v>1</v>
@@ -18456,7 +18456,7 @@
     </row>
     <row r="949" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A949" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B949">
         <v>1</v>
@@ -18465,12 +18465,12 @@
         <v>131</v>
       </c>
       <c r="F949" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="950" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A950" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B950">
         <v>1</v>
@@ -18479,26 +18479,26 @@
         <v>131</v>
       </c>
       <c r="F950" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="951" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B951">
         <v>1</v>
       </c>
       <c r="D951" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="F951" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="952" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A952" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B952">
         <v>1</v>
@@ -18507,12 +18507,12 @@
         <v>131</v>
       </c>
       <c r="F952" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="953" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B953">
         <v>1</v>
@@ -18521,18 +18521,18 @@
         <v>131</v>
       </c>
       <c r="F953" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="954" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B954">
         <v>1</v>
       </c>
       <c r="D954" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="G954">
         <v>207</v>
@@ -18540,13 +18540,13 @@
     </row>
     <row r="955" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B955">
         <v>1</v>
       </c>
       <c r="D955" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="G955">
         <v>204</v>
@@ -18554,7 +18554,7 @@
     </row>
     <row r="956" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B956">
         <v>1</v>
@@ -18568,7 +18568,7 @@
     </row>
     <row r="957" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A957" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B957">
         <v>1</v>
@@ -18577,35 +18577,35 @@
         <v>131</v>
       </c>
       <c r="F957" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="958" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B958">
         <v>1</v>
       </c>
       <c r="D958" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F958" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="H958" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="959" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B959">
         <v>1</v>
       </c>
       <c r="D959" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="G959">
         <v>249</v>
@@ -18613,7 +18613,7 @@
     </row>
     <row r="960" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B960">
         <v>1</v>
@@ -18627,7 +18627,7 @@
     </row>
     <row r="961" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B961">
         <v>1</v>
@@ -18639,12 +18639,12 @@
         <v>249</v>
       </c>
       <c r="H961" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="962" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B962">
         <v>1</v>
@@ -18658,7 +18658,7 @@
     </row>
     <row r="963" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B963">
         <v>1</v>
@@ -18667,12 +18667,12 @@
         <v>131</v>
       </c>
       <c r="F963" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="964" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A964" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B964">
         <v>1</v>
@@ -18686,7 +18686,7 @@
     </row>
     <row r="965" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A965" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B965">
         <v>1</v>
@@ -18695,12 +18695,12 @@
         <v>131</v>
       </c>
       <c r="F965" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="966" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B966">
         <v>1</v>
@@ -18714,7 +18714,7 @@
     </row>
     <row r="967" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B967">
         <v>1</v>
@@ -18723,26 +18723,26 @@
         <v>131</v>
       </c>
       <c r="F967" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="968" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B968">
         <v>1</v>
       </c>
       <c r="D968" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F968" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="969" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B969">
         <v>1</v>
@@ -18756,7 +18756,7 @@
     </row>
     <row r="970" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B970">
         <v>1</v>
@@ -18770,7 +18770,7 @@
     </row>
     <row r="971" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A971" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B971">
         <v>1</v>
@@ -18784,7 +18784,7 @@
     </row>
     <row r="972" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B972">
         <v>1</v>
@@ -18793,12 +18793,12 @@
         <v>129</v>
       </c>
       <c r="F972" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="973" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A973" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B973">
         <v>1</v>
@@ -18812,7 +18812,7 @@
     </row>
     <row r="974" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B974">
         <v>1</v>
@@ -18821,26 +18821,26 @@
         <v>131</v>
       </c>
       <c r="F974" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="975" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B975">
         <v>1</v>
       </c>
       <c r="D975" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="F975" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="976" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B976">
         <v>1</v>
@@ -18849,26 +18849,26 @@
         <v>131</v>
       </c>
       <c r="H976" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="977" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B977">
         <v>1</v>
       </c>
       <c r="D977" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="F977" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="978" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A978" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B978">
         <v>1</v>
@@ -18877,12 +18877,12 @@
         <v>131</v>
       </c>
       <c r="F978" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="979" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B979">
         <v>1</v>
@@ -18896,7 +18896,7 @@
     </row>
     <row r="980" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B980">
         <v>1</v>
@@ -18910,7 +18910,7 @@
     </row>
     <row r="981" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A981" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B981">
         <v>1</v>
@@ -18919,12 +18919,12 @@
         <v>131</v>
       </c>
       <c r="F981" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="982" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A982" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B982">
         <v>1</v>
@@ -18933,12 +18933,12 @@
         <v>131</v>
       </c>
       <c r="F982" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="983" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B983">
         <v>1</v>
@@ -18952,13 +18952,13 @@
     </row>
     <row r="984" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B984">
         <v>1</v>
       </c>
       <c r="D984" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="G984">
         <v>209</v>
@@ -18966,13 +18966,13 @@
     </row>
     <row r="985" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B985">
         <v>1</v>
       </c>
       <c r="D985" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="G985">
         <v>204</v>
@@ -18980,7 +18980,7 @@
     </row>
     <row r="986" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C986">
         <v>1</v>
@@ -18988,7 +18988,7 @@
     </row>
     <row r="987" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B987">
         <v>1</v>
@@ -19002,7 +19002,7 @@
     </row>
     <row r="988" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B988">
         <v>1</v>
@@ -19011,12 +19011,12 @@
         <v>131</v>
       </c>
       <c r="F988" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="989" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B989">
         <v>1</v>
@@ -19025,12 +19025,12 @@
         <v>129</v>
       </c>
       <c r="F989" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="990" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B990">
         <v>1</v>
@@ -19044,21 +19044,21 @@
     </row>
     <row r="991" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B991">
         <v>1</v>
       </c>
       <c r="D991" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F991" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="992" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B992">
         <v>1</v>
@@ -19067,12 +19067,12 @@
         <v>131</v>
       </c>
       <c r="F992" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="993" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B993">
         <v>1</v>
@@ -19081,12 +19081,12 @@
         <v>131</v>
       </c>
       <c r="F993" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="994" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B994">
         <v>1</v>
@@ -19095,26 +19095,26 @@
         <v>131</v>
       </c>
       <c r="F994" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="995" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B995">
         <v>1</v>
       </c>
       <c r="D995" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="F995" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="996" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C996">
         <v>1</v>
@@ -19122,35 +19122,35 @@
     </row>
     <row r="997" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B997">
         <v>1</v>
       </c>
       <c r="D997" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="F997" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="998" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B998">
         <v>1</v>
       </c>
       <c r="D998" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="F998" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="999" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B999">
         <v>1</v>
@@ -19164,7 +19164,7 @@
     </row>
     <row r="1000" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B1000">
         <v>1</v>
@@ -19178,7 +19178,7 @@
     </row>
     <row r="1001" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B1001">
         <v>1</v>
@@ -19187,12 +19187,12 @@
         <v>131</v>
       </c>
       <c r="F1001" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="1002" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B1002">
         <v>1</v>
@@ -19201,18 +19201,18 @@
         <v>129</v>
       </c>
       <c r="F1002" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="1003" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B1003">
         <v>1</v>
       </c>
       <c r="D1003" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="G1003">
         <v>204</v>
@@ -19220,7 +19220,7 @@
     </row>
     <row r="1004" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B1004">
         <v>1</v>
@@ -19234,7 +19234,7 @@
     </row>
     <row r="1005" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B1005">
         <v>1</v>
@@ -19248,13 +19248,13 @@
     </row>
     <row r="1006" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1006" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B1006">
         <v>1</v>
       </c>
       <c r="D1006" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="G1006">
         <v>212</v>
@@ -19262,7 +19262,7 @@
     </row>
     <row r="1007" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B1007">
         <v>1</v>
@@ -19276,7 +19276,7 @@
     </row>
     <row r="1008" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B1008">
         <v>1</v>
@@ -19290,13 +19290,13 @@
     </row>
     <row r="1009" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1009" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B1009">
         <v>1</v>
       </c>
       <c r="D1009" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G1009">
         <v>214</v>
@@ -19304,7 +19304,7 @@
     </row>
     <row r="1010" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B1010">
         <v>1</v>
@@ -19313,12 +19313,12 @@
         <v>131</v>
       </c>
       <c r="F1010" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="1011" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C1011">
         <v>1</v>
@@ -19326,13 +19326,13 @@
     </row>
     <row r="1012" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B1012">
         <v>1</v>
       </c>
       <c r="D1012" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G1012">
         <v>215</v>
@@ -19340,7 +19340,7 @@
     </row>
     <row r="1013" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B1013">
         <v>1</v>
@@ -19354,7 +19354,7 @@
     </row>
     <row r="1014" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B1014">
         <v>1</v>
@@ -19368,7 +19368,7 @@
     </row>
     <row r="1015" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B1015">
         <v>1</v>
@@ -19382,21 +19382,21 @@
     </row>
     <row r="1016" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B1016">
         <v>1</v>
       </c>
       <c r="D1016" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F1016" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="1017" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B1017">
         <v>1</v>
@@ -19410,7 +19410,7 @@
     </row>
     <row r="1018" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C1018">
         <v>1</v>
@@ -19418,7 +19418,7 @@
     </row>
     <row r="1019" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B1019">
         <v>1</v>
@@ -19432,7 +19432,7 @@
     </row>
     <row r="1020" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B1020">
         <v>1</v>
@@ -19446,7 +19446,7 @@
     </row>
     <row r="1021" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B1021">
         <v>1</v>
@@ -19460,7 +19460,7 @@
     </row>
     <row r="1022" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B1022">
         <v>1</v>
@@ -19474,7 +19474,7 @@
     </row>
     <row r="1023" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B1023">
         <v>1</v>
@@ -19483,12 +19483,12 @@
         <v>131</v>
       </c>
       <c r="F1023" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="1024" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B1024">
         <v>1</v>
@@ -19502,13 +19502,13 @@
     </row>
     <row r="1025" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B1025">
         <v>1</v>
       </c>
       <c r="D1025" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="G1025">
         <v>220</v>
@@ -19516,7 +19516,7 @@
     </row>
     <row r="1026" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B1026">
         <v>1</v>
@@ -19530,13 +19530,13 @@
     </row>
     <row r="1027" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B1027">
         <v>1</v>
       </c>
       <c r="D1027" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="G1027">
         <v>204</v>
@@ -19544,7 +19544,7 @@
     </row>
     <row r="1028" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1028">
         <v>1</v>
@@ -19558,7 +19558,7 @@
     </row>
     <row r="1029" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1029">
         <v>1</v>
@@ -19567,12 +19567,12 @@
         <v>131</v>
       </c>
       <c r="F1029" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="1030" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B1030">
         <v>1</v>
@@ -19586,7 +19586,7 @@
     </row>
     <row r="1031" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B1031">
         <v>1</v>
@@ -19595,18 +19595,18 @@
         <v>131</v>
       </c>
       <c r="F1031" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="1032" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B1032">
         <v>1</v>
       </c>
       <c r="D1032" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="G1032">
         <v>208</v>
@@ -19614,7 +19614,7 @@
     </row>
     <row r="1033" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B1033">
         <v>1</v>
@@ -19623,18 +19623,18 @@
         <v>131</v>
       </c>
       <c r="F1033" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="1034" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B1034">
         <v>1</v>
       </c>
       <c r="D1034" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="G1034">
         <v>227</v>
@@ -19642,7 +19642,7 @@
     </row>
     <row r="1035" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B1035">
         <v>1</v>
@@ -19651,12 +19651,12 @@
         <v>131</v>
       </c>
       <c r="F1035" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1036" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B1036">
         <v>1</v>
@@ -19665,12 +19665,12 @@
         <v>131</v>
       </c>
       <c r="F1036" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="1037" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B1037">
         <v>1</v>
@@ -19684,7 +19684,7 @@
     </row>
     <row r="1038" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B1038">
         <v>1</v>
@@ -19698,35 +19698,35 @@
     </row>
     <row r="1039" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1039" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B1039">
         <v>1</v>
       </c>
       <c r="D1039" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="F1039" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="1040" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B1040">
         <v>1</v>
       </c>
       <c r="D1040" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="H1040" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="1041" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1041" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B1041">
         <v>1</v>
@@ -19735,12 +19735,12 @@
         <v>131</v>
       </c>
       <c r="F1041" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="1042" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B1042">
         <v>1</v>
@@ -19749,26 +19749,26 @@
         <v>1034</v>
       </c>
       <c r="F1042" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="1043" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1043" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B1043">
         <v>1</v>
       </c>
       <c r="D1043" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F1043" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="1044" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B1044">
         <v>1</v>
@@ -19777,12 +19777,12 @@
         <v>129</v>
       </c>
       <c r="F1044" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="1045" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1045" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B1045">
         <v>1</v>
@@ -19791,12 +19791,12 @@
         <v>131</v>
       </c>
       <c r="F1045" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="1046" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B1046">
         <v>1</v>
@@ -19805,26 +19805,26 @@
         <v>131</v>
       </c>
       <c r="F1046" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="1047" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B1047">
         <v>1</v>
       </c>
       <c r="D1047" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="F1047" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="1048" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B1048">
         <v>1</v>
@@ -19838,7 +19838,7 @@
     </row>
     <row r="1049" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B1049">
         <v>1</v>
@@ -19852,7 +19852,7 @@
     </row>
     <row r="1050" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1050" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C1050">
         <v>1</v>
@@ -19860,7 +19860,7 @@
     </row>
     <row r="1051" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B1051">
         <v>1</v>
@@ -19869,40 +19869,40 @@
         <v>133</v>
       </c>
       <c r="F1051" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1052" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B1052">
         <v>1</v>
       </c>
       <c r="D1052" t="s">
+        <v>1829</v>
+      </c>
+      <c r="F1052" t="s">
         <v>1830</v>
-      </c>
-      <c r="F1052" t="s">
-        <v>1831</v>
       </c>
     </row>
     <row r="1053" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B1053">
         <v>1</v>
       </c>
       <c r="D1053" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="F1053" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="1054" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1054" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B1054">
         <v>1</v>
@@ -19916,21 +19916,21 @@
     </row>
     <row r="1055" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B1055">
         <v>1</v>
       </c>
       <c r="D1055" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F1055" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="1056" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B1056">
         <v>1</v>
@@ -19939,12 +19939,12 @@
         <v>131</v>
       </c>
       <c r="F1056" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="1057" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1057" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B1057">
         <v>1</v>
@@ -19958,7 +19958,7 @@
     </row>
     <row r="1058" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1058" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B1058">
         <v>1</v>
@@ -19972,13 +19972,13 @@
     </row>
     <row r="1059" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1059" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B1059">
         <v>1</v>
       </c>
       <c r="D1059" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="G1059">
         <v>215</v>
@@ -19986,35 +19986,35 @@
     </row>
     <row r="1060" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B1060">
         <v>1</v>
       </c>
       <c r="D1060" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="F1060" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="1061" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B1061">
         <v>1</v>
       </c>
       <c r="D1061" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F1061" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="1062" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B1062">
         <v>1</v>
@@ -20028,13 +20028,13 @@
     </row>
     <row r="1063" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1063" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B1063">
         <v>1</v>
       </c>
       <c r="D1063" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="G1063">
         <v>208</v>
@@ -20042,7 +20042,7 @@
     </row>
     <row r="1064" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1064" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B1064">
         <v>1</v>
@@ -20056,35 +20056,35 @@
     </row>
     <row r="1065" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1065" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B1065">
         <v>1</v>
       </c>
       <c r="D1065" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="F1065" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1066" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B1066">
         <v>1</v>
       </c>
       <c r="D1066" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F1066" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="1067" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1067" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B1067">
         <v>1</v>
@@ -20098,7 +20098,7 @@
     </row>
     <row r="1068" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1068" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B1068">
         <v>1</v>
@@ -20112,21 +20112,21 @@
     </row>
     <row r="1069" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1069" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B1069">
         <v>1</v>
       </c>
       <c r="D1069" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="F1069" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="1070" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1070" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B1070">
         <v>1</v>
@@ -20140,7 +20140,7 @@
     </row>
     <row r="1071" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1071" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C1071">
         <v>1</v>
@@ -20148,41 +20148,41 @@
     </row>
     <row r="1072" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1072" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B1072">
         <v>1</v>
       </c>
       <c r="D1072" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="F1072" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="1073" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B1073">
         <v>1</v>
       </c>
       <c r="D1073" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="F1073" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1074" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1074" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B1074">
         <v>1</v>
       </c>
       <c r="D1074" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G1074">
         <v>228</v>
@@ -20190,7 +20190,7 @@
     </row>
     <row r="1075" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1075" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B1075">
         <v>1</v>
@@ -20204,7 +20204,7 @@
     </row>
     <row r="1076" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1076" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C1076">
         <v>1</v>
@@ -20212,7 +20212,7 @@
     </row>
     <row r="1077" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1077" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B1077">
         <v>1</v>
@@ -20226,13 +20226,13 @@
     </row>
     <row r="1078" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1078" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B1078">
         <v>1</v>
       </c>
       <c r="D1078" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="G1078">
         <v>227</v>
@@ -20240,27 +20240,27 @@
     </row>
     <row r="1079" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1079" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B1079">
         <v>1</v>
       </c>
       <c r="D1079" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F1079" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1080" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1080" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B1080">
         <v>1</v>
       </c>
       <c r="D1080" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="G1080">
         <v>204</v>
@@ -20268,7 +20268,7 @@
     </row>
     <row r="1081" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1081" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B1081">
         <v>1</v>
@@ -20282,7 +20282,7 @@
     </row>
     <row r="1082" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1082" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B1082">
         <v>1</v>
@@ -20296,13 +20296,13 @@
     </row>
     <row r="1083" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1083" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B1083">
         <v>1</v>
       </c>
       <c r="D1083" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="G1083">
         <v>211</v>
@@ -20310,7 +20310,7 @@
     </row>
     <row r="1084" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1084" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B1084">
         <v>1</v>
@@ -20324,7 +20324,7 @@
     </row>
     <row r="1085" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1085" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B1085">
         <v>1</v>
@@ -20338,7 +20338,7 @@
     </row>
     <row r="1086" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1086" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B1086">
         <v>1</v>
@@ -20352,13 +20352,13 @@
     </row>
     <row r="1087" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B1087">
         <v>1</v>
       </c>
       <c r="D1087" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="G1087">
         <v>213</v>
@@ -20366,13 +20366,13 @@
     </row>
     <row r="1088" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1088" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B1088">
         <v>1</v>
       </c>
       <c r="D1088" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="G1088">
         <v>257</v>
@@ -20380,35 +20380,35 @@
     </row>
     <row r="1089" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1089" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B1089">
         <v>1</v>
       </c>
       <c r="D1089" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F1089" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1090" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1090" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B1090">
         <v>1</v>
       </c>
       <c r="D1090" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="F1090" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="1091" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1091" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B1091">
         <v>1</v>
@@ -20422,7 +20422,7 @@
     </row>
     <row r="1092" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1092" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B1092">
         <v>1</v>
@@ -20436,7 +20436,7 @@
     </row>
     <row r="1093" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1093" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C1093">
         <v>1</v>
@@ -20444,7 +20444,7 @@
     </row>
     <row r="1094" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1094" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B1094">
         <v>1</v>
@@ -20458,7 +20458,7 @@
     </row>
     <row r="1095" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1095" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B1095">
         <v>1</v>
@@ -20472,7 +20472,7 @@
     </row>
     <row r="1096" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1096" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B1096">
         <v>1</v>
@@ -20481,12 +20481,12 @@
         <v>131</v>
       </c>
       <c r="F1096" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="1097" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1097" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B1097">
         <v>1</v>
@@ -20495,26 +20495,26 @@
         <v>131</v>
       </c>
       <c r="F1097" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1098" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1098" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B1098">
         <v>1</v>
       </c>
       <c r="D1098" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="F1098" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1099" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1099" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B1099">
         <v>1</v>
@@ -20523,12 +20523,12 @@
         <v>131</v>
       </c>
       <c r="F1099" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="1100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1100" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B1100">
         <v>1</v>
@@ -20542,7 +20542,7 @@
     </row>
     <row r="1101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1101" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B1101">
         <v>1</v>
@@ -20556,7 +20556,7 @@
     </row>
     <row r="1102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1102" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B1102">
         <v>1</v>
@@ -20570,7 +20570,7 @@
     </row>
     <row r="1103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1103" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B1103">
         <v>1</v>
@@ -20584,7 +20584,7 @@
     </row>
     <row r="1104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1104" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B1104">
         <v>1</v>
@@ -20598,7 +20598,7 @@
     </row>
     <row r="1105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1105" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B1105">
         <v>1</v>
@@ -20612,7 +20612,7 @@
     </row>
     <row r="1106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1106" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B1106">
         <v>1</v>
@@ -20621,12 +20621,12 @@
         <v>131</v>
       </c>
       <c r="F1106" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="1107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1107" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C1107">
         <v>1</v>
@@ -20634,7 +20634,7 @@
     </row>
     <row r="1108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B1108">
         <v>1</v>
@@ -20643,12 +20643,12 @@
         <v>129</v>
       </c>
       <c r="F1108" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="1109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1109" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B1109">
         <v>1</v>
@@ -20657,18 +20657,18 @@
         <v>131</v>
       </c>
       <c r="F1109" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1110" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B1110">
         <v>1</v>
       </c>
       <c r="D1110" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="G1110">
         <v>228</v>
@@ -20676,13 +20676,13 @@
     </row>
     <row r="1111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1111" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B1111">
         <v>1</v>
       </c>
       <c r="D1111" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="G1111">
         <v>250</v>
@@ -20690,13 +20690,13 @@
     </row>
     <row r="1112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1112" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B1112">
         <v>1</v>
       </c>
       <c r="D1112" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="G1112">
         <v>211</v>
@@ -20704,13 +20704,13 @@
     </row>
     <row r="1113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1113" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B1113">
         <v>1</v>
       </c>
       <c r="D1113" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="G1113">
         <v>212</v>
@@ -20718,13 +20718,13 @@
     </row>
     <row r="1114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1114" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B1114">
         <v>1</v>
       </c>
       <c r="D1114" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="G1114">
         <v>220</v>
@@ -20732,7 +20732,7 @@
     </row>
     <row r="1115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1115" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C1115">
         <v>1</v>
@@ -20740,69 +20740,69 @@
     </row>
     <row r="1116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1116" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B1116">
         <v>1</v>
       </c>
       <c r="D1116" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F1116" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1117" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B1117">
         <v>1</v>
       </c>
       <c r="D1117" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F1117" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="1118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1118" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B1118">
         <v>1</v>
       </c>
       <c r="D1118" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="F1118" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1119" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B1119">
         <v>1</v>
       </c>
       <c r="D1119" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="F1119" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="1120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1120" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B1120">
         <v>1</v>
       </c>
       <c r="D1120" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="G1120">
         <v>227</v>
@@ -20810,7 +20810,7 @@
     </row>
     <row r="1121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1121" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B1121">
         <v>1</v>
@@ -20822,12 +20822,12 @@
         <v>215</v>
       </c>
       <c r="H1121" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="1122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1122" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C1122">
         <v>1</v>
@@ -20835,7 +20835,7 @@
     </row>
     <row r="1123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1123" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B1123">
         <v>1</v>
@@ -20849,7 +20849,7 @@
     </row>
     <row r="1124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1124" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C1124">
         <v>1</v>
@@ -20857,27 +20857,27 @@
     </row>
     <row r="1125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1125" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B1125">
         <v>1</v>
       </c>
       <c r="D1125" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="F1125" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1126" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B1126">
         <v>1</v>
       </c>
       <c r="D1126" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="G1126">
         <v>227</v>
@@ -20885,13 +20885,13 @@
     </row>
     <row r="1127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1127" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B1127">
         <v>1</v>
       </c>
       <c r="D1127" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="G1127">
         <v>211</v>
@@ -20899,7 +20899,7 @@
     </row>
     <row r="1128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1128" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B1128">
         <v>1</v>
@@ -20908,12 +20908,12 @@
         <v>131</v>
       </c>
       <c r="F1128" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="1129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1129" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B1129">
         <v>1</v>
@@ -20927,7 +20927,7 @@
     </row>
     <row r="1130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1130" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B1130">
         <v>1</v>
@@ -20941,7 +20941,7 @@
     </row>
     <row r="1131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1131" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1131">
         <v>1</v>
@@ -20950,18 +20950,18 @@
         <v>131</v>
       </c>
       <c r="F1131" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="1132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1132" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1132">
         <v>1</v>
       </c>
       <c r="D1132" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="G1132">
         <v>209</v>
@@ -20969,7 +20969,7 @@
     </row>
     <row r="1133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1133" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B1133">
         <v>1</v>
@@ -20983,21 +20983,21 @@
     </row>
     <row r="1134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1134" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1134">
         <v>1</v>
       </c>
       <c r="D1134" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="F1134" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="1135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1135" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B1135">
         <v>1</v>
@@ -21006,12 +21006,12 @@
         <v>131</v>
       </c>
       <c r="F1135" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="1136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1136" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B1136">
         <v>1</v>
@@ -21020,12 +21020,12 @@
         <v>131</v>
       </c>
       <c r="F1136" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="1137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1137" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1137">
         <v>1</v>
@@ -21039,21 +21039,21 @@
     </row>
     <row r="1138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1138" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B1138">
         <v>1</v>
       </c>
       <c r="D1138" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="F1138" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="1139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1139" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B1139">
         <v>1</v>
@@ -21067,13 +21067,13 @@
     </row>
     <row r="1140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1140" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B1140">
         <v>1</v>
       </c>
       <c r="D1140" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G1140">
         <v>227</v>
@@ -21081,21 +21081,21 @@
     </row>
     <row r="1141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1141" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B1141">
         <v>1</v>
       </c>
       <c r="D1141" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="F1141" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="1142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1142" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C1142">
         <v>1</v>
@@ -21103,7 +21103,7 @@
     </row>
     <row r="1143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1143" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C1143">
         <v>1</v>
@@ -21111,13 +21111,13 @@
     </row>
     <row r="1144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1144" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B1144">
         <v>1</v>
       </c>
       <c r="D1144" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="G1144">
         <v>219</v>
@@ -21125,21 +21125,21 @@
     </row>
     <row r="1145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1145" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B1145">
         <v>1</v>
       </c>
       <c r="D1145" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="F1145" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="1146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1146" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B1146">
         <v>1</v>
@@ -21148,12 +21148,12 @@
         <v>129</v>
       </c>
       <c r="F1146" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="1147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1147" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B1147">
         <v>1</v>
@@ -21167,7 +21167,7 @@
     </row>
     <row r="1148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1148" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B1148">
         <v>1</v>
@@ -21181,18 +21181,18 @@
     </row>
     <row r="1149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1149" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C1149">
         <v>1</v>
       </c>
       <c r="D1149" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="1150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1150" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C1150">
         <v>1</v>
@@ -21200,7 +21200,7 @@
     </row>
     <row r="1151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1151" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B1151">
         <v>1</v>
@@ -21209,12 +21209,12 @@
         <v>131</v>
       </c>
       <c r="F1151" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="1152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1152" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B1152">
         <v>1</v>
@@ -21228,7 +21228,7 @@
     </row>
     <row r="1153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1153" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B1153">
         <v>1</v>
@@ -21242,7 +21242,7 @@
     </row>
     <row r="1154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1154" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B1154">
         <v>1</v>
@@ -21251,12 +21251,12 @@
         <v>131</v>
       </c>
       <c r="F1154" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="1155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1155" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B1155">
         <v>1</v>
@@ -21270,7 +21270,7 @@
     </row>
     <row r="1156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1156" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B1156">
         <v>1</v>
@@ -21284,7 +21284,7 @@
     </row>
     <row r="1157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1157" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B1157">
         <v>1</v>
@@ -21298,7 +21298,7 @@
     </row>
     <row r="1158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1158" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B1158">
         <v>1</v>
@@ -21312,27 +21312,27 @@
     </row>
     <row r="1159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1159" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B1159">
         <v>1</v>
       </c>
       <c r="D1159" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F1159" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="1160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1160" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B1160">
         <v>1</v>
       </c>
       <c r="D1160" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="G1160">
         <v>249</v>
@@ -21340,13 +21340,13 @@
     </row>
     <row r="1161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1161" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B1161">
         <v>1</v>
       </c>
       <c r="D1161" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="G1161">
         <v>215</v>
@@ -21354,13 +21354,13 @@
     </row>
     <row r="1162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1162" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B1162">
         <v>1</v>
       </c>
       <c r="D1162" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="G1162">
         <v>255</v>
@@ -21368,7 +21368,7 @@
     </row>
     <row r="1163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1163" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B1163">
         <v>1</v>
@@ -21377,12 +21377,12 @@
         <v>131</v>
       </c>
       <c r="F1163" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1164" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B1164">
         <v>1</v>
@@ -21396,7 +21396,7 @@
     </row>
     <row r="1165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1165" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B1165">
         <v>1</v>
@@ -21407,7 +21407,7 @@
     </row>
     <row r="1166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1166" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B1166">
         <v>1</v>
@@ -21421,7 +21421,7 @@
     </row>
     <row r="1167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1167" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B1167">
         <v>1</v>
@@ -21435,7 +21435,7 @@
     </row>
     <row r="1168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1168" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B1168">
         <v>1</v>
@@ -21444,18 +21444,18 @@
         <v>131</v>
       </c>
       <c r="F1168" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="1169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1169" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B1169">
         <v>1</v>
       </c>
       <c r="D1169" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="G1169">
         <v>231</v>
@@ -21463,7 +21463,7 @@
     </row>
     <row r="1170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1170" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B1170">
         <v>1</v>
@@ -21477,7 +21477,7 @@
     </row>
     <row r="1171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1171" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B1171">
         <v>1</v>
@@ -21486,12 +21486,12 @@
         <v>131</v>
       </c>
       <c r="F1171" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="1172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1172" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B1172">
         <v>1</v>
@@ -21500,12 +21500,12 @@
         <v>129</v>
       </c>
       <c r="F1172" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="1173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1173" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B1173">
         <v>1</v>
@@ -21519,7 +21519,7 @@
     </row>
     <row r="1174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1174" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B1174">
         <v>1</v>
@@ -21531,12 +21531,12 @@
         <v>209</v>
       </c>
       <c r="H1174" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1175" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C1175">
         <v>1</v>
@@ -21544,7 +21544,7 @@
     </row>
     <row r="1176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1176" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B1176">
         <v>1</v>
@@ -21558,7 +21558,7 @@
     </row>
     <row r="1177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1177" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B1177">
         <v>1</v>
@@ -21572,7 +21572,7 @@
     </row>
     <row r="1178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1178" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B1178">
         <v>1</v>
@@ -21581,18 +21581,18 @@
         <v>131</v>
       </c>
       <c r="F1178" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="1179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1179" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B1179">
         <v>1</v>
       </c>
       <c r="D1179" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="G1179">
         <v>215</v>
@@ -21600,7 +21600,7 @@
     </row>
     <row r="1180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1180" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B1180">
         <v>1</v>
@@ -21614,7 +21614,7 @@
     </row>
     <row r="1181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B1181">
         <v>1</v>
@@ -21628,7 +21628,7 @@
     </row>
     <row r="1182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1182" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B1182">
         <v>1</v>
@@ -21642,7 +21642,7 @@
     </row>
     <row r="1183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1183" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B1183">
         <v>1</v>
@@ -21656,7 +21656,7 @@
     </row>
     <row r="1184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1184" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B1184">
         <v>1</v>
@@ -21670,13 +21670,13 @@
     </row>
     <row r="1185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1185" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B1185">
         <v>1</v>
       </c>
       <c r="D1185" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="G1185">
         <v>249</v>
@@ -21684,7 +21684,7 @@
     </row>
     <row r="1186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1186" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B1186">
         <v>1</v>
@@ -21698,7 +21698,7 @@
     </row>
     <row r="1187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1187" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B1187">
         <v>1</v>
@@ -21712,13 +21712,13 @@
     </row>
     <row r="1188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1188" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B1188">
         <v>1</v>
       </c>
       <c r="D1188" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="G1188">
         <v>220</v>
@@ -21726,21 +21726,21 @@
     </row>
     <row r="1189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1189" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B1189">
         <v>1</v>
       </c>
       <c r="D1189" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="F1189" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="1190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1190" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B1190">
         <v>1</v>
@@ -21754,13 +21754,13 @@
     </row>
     <row r="1191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1191" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B1191">
         <v>1</v>
       </c>
       <c r="D1191" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="G1191">
         <v>249</v>
@@ -21768,13 +21768,13 @@
     </row>
     <row r="1192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1192" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B1192">
         <v>1</v>
       </c>
       <c r="D1192" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="G1192">
         <v>251</v>
@@ -21782,41 +21782,41 @@
     </row>
     <row r="1193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1193" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B1193">
         <v>1</v>
       </c>
       <c r="D1193" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="F1193" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="1194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1194" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B1194">
         <v>1</v>
       </c>
       <c r="D1194" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="F1194" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1195" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B1195">
         <v>1</v>
       </c>
       <c r="D1195" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="G1195">
         <v>204</v>
@@ -21824,7 +21824,7 @@
     </row>
     <row r="1196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1196" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B1196">
         <v>1</v>
@@ -21838,7 +21838,7 @@
     </row>
     <row r="1197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1197" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B1197">
         <v>1</v>
@@ -21852,7 +21852,7 @@
     </row>
     <row r="1198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1198" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B1198">
         <v>1</v>
@@ -21861,12 +21861,12 @@
         <v>131</v>
       </c>
       <c r="F1198" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="1199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1199" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B1199">
         <v>1</v>
@@ -21880,21 +21880,21 @@
     </row>
     <row r="1200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1200" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B1200">
         <v>1</v>
       </c>
       <c r="D1200" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="F1200" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="1201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1201" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B1201">
         <v>1</v>
@@ -21908,7 +21908,7 @@
     </row>
     <row r="1202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1202" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B1202">
         <v>1</v>
@@ -21922,7 +21922,7 @@
     </row>
     <row r="1203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1203" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B1203">
         <v>1</v>
@@ -21931,12 +21931,12 @@
         <v>131</v>
       </c>
       <c r="F1203" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="1204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1204" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B1204">
         <v>1</v>
@@ -21945,12 +21945,12 @@
         <v>301</v>
       </c>
       <c r="F1204" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="1205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1205" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B1205">
         <v>1</v>
@@ -21964,7 +21964,7 @@
     </row>
     <row r="1206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1206" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B1206">
         <v>1</v>
@@ -21978,7 +21978,7 @@
     </row>
     <row r="1207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1207" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B1207">
         <v>1</v>
@@ -21987,12 +21987,12 @@
         <v>133</v>
       </c>
       <c r="F1207" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="1208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1208" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B1208">
         <v>1</v>
@@ -22001,12 +22001,12 @@
         <v>131</v>
       </c>
       <c r="F1208" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="1209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1209" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B1209">
         <v>1</v>
@@ -22015,12 +22015,12 @@
         <v>129</v>
       </c>
       <c r="F1209" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="1210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1210" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B1210">
         <v>1</v>
@@ -22029,12 +22029,12 @@
         <v>129</v>
       </c>
       <c r="F1210" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="1211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1211" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B1211">
         <v>1</v>
@@ -22048,7 +22048,7 @@
     </row>
     <row r="1212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1212" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B1212">
         <v>1</v>
@@ -22057,12 +22057,12 @@
         <v>131</v>
       </c>
       <c r="F1212" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1213" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B1213">
         <v>1</v>
@@ -22076,7 +22076,7 @@
     </row>
     <row r="1214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1214" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B1214">
         <v>1</v>
@@ -22085,12 +22085,12 @@
         <v>131</v>
       </c>
       <c r="F1214" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="1215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1215" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B1215">
         <v>1</v>
@@ -22104,7 +22104,7 @@
     </row>
     <row r="1216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1216" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B1216">
         <v>1</v>
@@ -22113,12 +22113,12 @@
         <v>131</v>
       </c>
       <c r="F1216" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="1217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1217" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B1217">
         <v>1</v>
@@ -22127,12 +22127,12 @@
         <v>131</v>
       </c>
       <c r="F1217" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="1218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1218" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B1218">
         <v>1</v>
@@ -22146,7 +22146,7 @@
     </row>
     <row r="1219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1219" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B1219">
         <v>1</v>
@@ -22155,12 +22155,12 @@
         <v>129</v>
       </c>
       <c r="F1219" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="1220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1220" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B1220">
         <v>1</v>
@@ -22174,7 +22174,7 @@
     </row>
     <row r="1221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1221" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B1221">
         <v>1</v>
@@ -22183,12 +22183,12 @@
         <v>129</v>
       </c>
       <c r="F1221" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="1222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1222" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B1222">
         <v>1</v>
@@ -22202,7 +22202,7 @@
     </row>
     <row r="1223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1223" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B1223">
         <v>1</v>
@@ -22211,26 +22211,26 @@
         <v>129</v>
       </c>
       <c r="F1223" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="1224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1224" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B1224">
         <v>1</v>
       </c>
       <c r="D1224" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F1224" t="s">
         <v>1383</v>
-      </c>
-      <c r="F1224" t="s">
-        <v>1384</v>
       </c>
     </row>
     <row r="1225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1225" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B1225">
         <v>1</v>
@@ -22239,12 +22239,12 @@
         <v>131</v>
       </c>
       <c r="F1225" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="1226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1226" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B1226">
         <v>1</v>
@@ -22253,12 +22253,12 @@
         <v>131</v>
       </c>
       <c r="F1226" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="1227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1227" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B1227">
         <v>1</v>
@@ -22267,12 +22267,12 @@
         <v>131</v>
       </c>
       <c r="F1227" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="1228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1228" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B1228">
         <v>1</v>
@@ -22286,7 +22286,7 @@
     </row>
     <row r="1229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1229" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B1229">
         <v>1</v>
@@ -22300,7 +22300,7 @@
     </row>
     <row r="1230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1230" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B1230">
         <v>1</v>
@@ -22314,7 +22314,7 @@
     </row>
     <row r="1231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1231" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B1231">
         <v>1</v>
@@ -22328,7 +22328,7 @@
     </row>
     <row r="1232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1232" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C1232">
         <v>1</v>
@@ -22336,7 +22336,7 @@
     </row>
     <row r="1233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1233" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B1233">
         <v>1</v>
@@ -22345,26 +22345,26 @@
         <v>129</v>
       </c>
       <c r="F1233" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="1234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1234" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B1234">
         <v>1</v>
       </c>
       <c r="D1234" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F1234" t="s">
         <v>1389</v>
-      </c>
-      <c r="F1234" t="s">
-        <v>1390</v>
       </c>
     </row>
     <row r="1235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1235" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B1235">
         <v>1</v>
@@ -22378,7 +22378,7 @@
     </row>
     <row r="1236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1236" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B1236">
         <v>1</v>
@@ -22392,7 +22392,7 @@
     </row>
     <row r="1237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1237" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B1237">
         <v>1</v>
@@ -22401,12 +22401,12 @@
         <v>131</v>
       </c>
       <c r="F1237" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="1238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1238" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B1238">
         <v>1</v>
@@ -22417,7 +22417,7 @@
     </row>
     <row r="1239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1239" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B1239">
         <v>1</v>
@@ -22431,7 +22431,7 @@
     </row>
     <row r="1240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1240" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C1240">
         <v>1</v>
@@ -22439,7 +22439,7 @@
     </row>
     <row r="1241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1241" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B1241">
         <v>1</v>
@@ -22453,7 +22453,7 @@
     </row>
     <row r="1242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1242" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B1242">
         <v>1</v>
@@ -22467,7 +22467,7 @@
     </row>
     <row r="1243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1243" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B1243">
         <v>1</v>
@@ -22481,13 +22481,13 @@
     </row>
     <row r="1244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1244" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B1244">
         <v>1</v>
       </c>
       <c r="D1244" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="G1244">
         <v>231</v>
@@ -22495,7 +22495,7 @@
     </row>
     <row r="1245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1245" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B1245">
         <v>1</v>
@@ -22504,12 +22504,12 @@
         <v>129</v>
       </c>
       <c r="F1245" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="1246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1246" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B1246">
         <v>1</v>
@@ -22523,7 +22523,7 @@
     </row>
     <row r="1247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1247" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B1247">
         <v>1</v>
@@ -22537,7 +22537,7 @@
     </row>
     <row r="1248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1248" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B1248">
         <v>1</v>
@@ -22546,18 +22546,18 @@
         <v>133</v>
       </c>
       <c r="F1248" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="1249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1249" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B1249">
         <v>1</v>
       </c>
       <c r="D1249" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="G1249">
         <v>227</v>
@@ -22565,7 +22565,7 @@
     </row>
     <row r="1250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1250" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B1250">
         <v>1</v>
@@ -22574,12 +22574,12 @@
         <v>131</v>
       </c>
       <c r="F1250" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="1251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1251" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B1251">
         <v>1</v>
@@ -22593,24 +22593,24 @@
     </row>
     <row r="1252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1252" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B1252">
         <v>1</v>
       </c>
       <c r="D1252" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="1253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1253" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B1253">
         <v>1</v>
       </c>
       <c r="D1253" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G1253">
         <v>251</v>
@@ -22618,21 +22618,21 @@
     </row>
     <row r="1254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1254" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B1254">
         <v>1</v>
       </c>
       <c r="D1254" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F1254" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1255" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B1255">
         <v>1</v>
@@ -22646,7 +22646,7 @@
     </row>
     <row r="1256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1256" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B1256">
         <v>1</v>
@@ -22660,7 +22660,7 @@
     </row>
     <row r="1257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1257" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B1257">
         <v>1</v>
@@ -22674,13 +22674,13 @@
     </row>
     <row r="1258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1258" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B1258">
         <v>1</v>
       </c>
       <c r="D1258" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="G1258">
         <v>213</v>
@@ -22688,7 +22688,7 @@
     </row>
     <row r="1259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1259" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B1259">
         <v>1</v>
@@ -22702,7 +22702,7 @@
     </row>
     <row r="1260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1260" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B1260">
         <v>1</v>
@@ -22716,7 +22716,7 @@
     </row>
     <row r="1261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1261" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B1261">
         <v>1</v>
@@ -22730,13 +22730,13 @@
     </row>
     <row r="1262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1262" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B1262">
         <v>1</v>
       </c>
       <c r="D1262" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="G1262">
         <v>219</v>
@@ -22744,21 +22744,21 @@
     </row>
     <row r="1263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1263" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B1263">
         <v>1</v>
       </c>
       <c r="D1263" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="F1263" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="1264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1264" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B1264">
         <v>1</v>
@@ -22767,12 +22767,12 @@
         <v>131</v>
       </c>
       <c r="F1264" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="1265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1265" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B1265">
         <v>1</v>
@@ -22786,7 +22786,7 @@
     </row>
     <row r="1266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1266" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B1266">
         <v>1</v>
@@ -22800,13 +22800,13 @@
     </row>
     <row r="1267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1267" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B1267">
         <v>1</v>
       </c>
       <c r="D1267" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="G1267">
         <v>204</v>
@@ -22814,7 +22814,7 @@
     </row>
     <row r="1268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1268" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B1268">
         <v>1</v>
@@ -22828,7 +22828,7 @@
     </row>
     <row r="1269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1269" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B1269">
         <v>1</v>
@@ -22842,7 +22842,7 @@
     </row>
     <row r="1270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1270" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B1270">
         <v>1</v>
@@ -22851,12 +22851,12 @@
         <v>131</v>
       </c>
       <c r="F1270" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="1271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1271" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B1271">
         <v>1</v>
@@ -22870,13 +22870,13 @@
     </row>
     <row r="1272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1272" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B1272">
         <v>1</v>
       </c>
       <c r="D1272" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="G1272">
         <v>208</v>
@@ -22884,7 +22884,7 @@
     </row>
     <row r="1273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1273" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B1273">
         <v>1</v>
@@ -22898,7 +22898,7 @@
     </row>
     <row r="1274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1274" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B1274">
         <v>1</v>
@@ -22907,12 +22907,12 @@
         <v>131</v>
       </c>
       <c r="F1274" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="1275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1275" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="C1275">
         <v>1</v>
@@ -22920,7 +22920,7 @@
     </row>
     <row r="1276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1276" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="C1276">
         <v>1</v>
@@ -22928,18 +22928,18 @@
     </row>
     <row r="1277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1277" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B1277">
         <v>1</v>
       </c>
       <c r="D1277" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="1278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1278" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B1278">
         <v>1</v>
@@ -22953,7 +22953,7 @@
     </row>
     <row r="1279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1279" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B1279">
         <v>1</v>
@@ -22967,13 +22967,13 @@
     </row>
     <row r="1280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1280" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B1280">
         <v>1</v>
       </c>
       <c r="D1280" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="G1280">
         <v>208</v>
@@ -22981,7 +22981,7 @@
     </row>
     <row r="1281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1281" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B1281">
         <v>1</v>
@@ -22995,7 +22995,7 @@
     </row>
     <row r="1282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1282" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B1282">
         <v>1</v>
@@ -23004,12 +23004,12 @@
         <v>131</v>
       </c>
       <c r="F1282" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1283" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B1283">
         <v>1</v>
@@ -23023,7 +23023,7 @@
     </row>
     <row r="1284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1284" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B1284">
         <v>1</v>
@@ -23032,18 +23032,18 @@
         <v>131</v>
       </c>
       <c r="F1284" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="1285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1285" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B1285">
         <v>1</v>
       </c>
       <c r="D1285" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="G1285">
         <v>210</v>
@@ -23051,7 +23051,7 @@
     </row>
     <row r="1286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1286" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B1286">
         <v>1</v>
@@ -23065,21 +23065,21 @@
     </row>
     <row r="1287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1287" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B1287">
         <v>1</v>
       </c>
       <c r="D1287" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="F1287" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="1288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1288" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B1288">
         <v>1</v>
@@ -23088,12 +23088,12 @@
         <v>131</v>
       </c>
       <c r="F1288" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="1289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1289" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B1289">
         <v>1</v>
@@ -23107,7 +23107,7 @@
     </row>
     <row r="1290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1290" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B1290">
         <v>1</v>
@@ -23121,7 +23121,7 @@
     </row>
     <row r="1291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1291" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B1291">
         <v>1</v>
@@ -23130,12 +23130,12 @@
         <v>131</v>
       </c>
       <c r="F1291" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="1292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1292" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B1292">
         <v>1</v>
@@ -23144,12 +23144,12 @@
         <v>131</v>
       </c>
       <c r="F1292" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="1293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1293" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B1293">
         <v>1</v>
@@ -23163,27 +23163,27 @@
     </row>
     <row r="1294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1294" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B1294">
         <v>1</v>
       </c>
       <c r="D1294" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F1294" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="1295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1295" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B1295">
         <v>1</v>
       </c>
       <c r="D1295" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="G1295">
         <v>251</v>
@@ -23191,7 +23191,7 @@
     </row>
     <row r="1296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1296" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B1296">
         <v>1</v>
@@ -23205,7 +23205,7 @@
     </row>
     <row r="1297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1297" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B1297">
         <v>1</v>
@@ -23219,18 +23219,18 @@
     </row>
     <row r="1298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1298" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="C1298">
         <v>1</v>
       </c>
       <c r="D1298" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="1299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1299" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="C1299">
         <v>1</v>
